--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P506"/>
+  <dimension ref="A1:P515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25078,6 +25078,472 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>360.1</v>
+      </c>
+      <c r="C507" t="n">
+        <v>345.6733333333333</v>
+      </c>
+      <c r="D507" t="n">
+        <v>345.7033333333333</v>
+      </c>
+      <c r="E507" t="n">
+        <v>366.3766666666667</v>
+      </c>
+      <c r="F507" t="n">
+        <v>378.4363636363637</v>
+      </c>
+      <c r="G507" t="n">
+        <v>371.4655555555556</v>
+      </c>
+      <c r="H507" t="n">
+        <v>359.3655555555555</v>
+      </c>
+      <c r="I507" t="n">
+        <v>366.4815384615384</v>
+      </c>
+      <c r="J507" t="n">
+        <v>367.9166666666667</v>
+      </c>
+      <c r="K507" t="n">
+        <v>369.2266666666667</v>
+      </c>
+      <c r="L507" t="n">
+        <v>378.4177777777778</v>
+      </c>
+      <c r="M507" t="n">
+        <v>363.3115384615385</v>
+      </c>
+      <c r="N507" t="n">
+        <v>368.1163636363637</v>
+      </c>
+      <c r="O507" t="n">
+        <v>361.83</v>
+      </c>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>351.96</v>
+      </c>
+      <c r="C508" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="n">
+        <v>385.01</v>
+      </c>
+      <c r="F508" t="n">
+        <v>392.3590909090909</v>
+      </c>
+      <c r="G508" t="n">
+        <v>396.81</v>
+      </c>
+      <c r="H508" t="n">
+        <v>393.66</v>
+      </c>
+      <c r="I508" t="n">
+        <v>381.0946153846153</v>
+      </c>
+      <c r="J508" t="n">
+        <v>379.96</v>
+      </c>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
+      <c r="M508" t="inlineStr"/>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>353.89</v>
+      </c>
+      <c r="C509" t="n">
+        <v>359.8066666666667</v>
+      </c>
+      <c r="D509" t="n">
+        <v>357.5166666666667</v>
+      </c>
+      <c r="E509" t="n">
+        <v>369.4933333333333</v>
+      </c>
+      <c r="F509" t="n">
+        <v>383.9772727272728</v>
+      </c>
+      <c r="G509" t="n">
+        <v>379.2377777777778</v>
+      </c>
+      <c r="H509" t="n">
+        <v>375.9577777777778</v>
+      </c>
+      <c r="I509" t="n">
+        <v>376.4692307692308</v>
+      </c>
+      <c r="J509" t="n">
+        <v>369.5733333333333</v>
+      </c>
+      <c r="K509" t="n">
+        <v>382.3133333333333</v>
+      </c>
+      <c r="L509" t="n">
+        <v>381.6188888888889</v>
+      </c>
+      <c r="M509" t="n">
+        <v>384.1692307692308</v>
+      </c>
+      <c r="N509" t="n">
+        <v>372.0272727272728</v>
+      </c>
+      <c r="O509" t="n">
+        <v>361.53</v>
+      </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>370.04</v>
+      </c>
+      <c r="C510" t="n">
+        <v>361.5266666666667</v>
+      </c>
+      <c r="D510" t="n">
+        <v>357.8566666666667</v>
+      </c>
+      <c r="E510" t="n">
+        <v>374.3433333333333</v>
+      </c>
+      <c r="F510" t="n">
+        <v>386.1818181818182</v>
+      </c>
+      <c r="G510" t="n">
+        <v>383.2111111111111</v>
+      </c>
+      <c r="H510" t="n">
+        <v>378.2211111111111</v>
+      </c>
+      <c r="I510" t="n">
+        <v>378.7676923076923</v>
+      </c>
+      <c r="J510" t="n">
+        <v>375.8333333333333</v>
+      </c>
+      <c r="K510" t="n">
+        <v>382.8633333333333</v>
+      </c>
+      <c r="L510" t="n">
+        <v>394.8255555555555</v>
+      </c>
+      <c r="M510" t="n">
+        <v>390.4976923076923</v>
+      </c>
+      <c r="N510" t="n">
+        <v>381.8518181818182</v>
+      </c>
+      <c r="O510" t="n">
+        <v>370.93</v>
+      </c>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>345.72</v>
+      </c>
+      <c r="C511" t="n">
+        <v>340.39</v>
+      </c>
+      <c r="D511" t="n">
+        <v>348.05</v>
+      </c>
+      <c r="E511" t="n">
+        <v>364.24</v>
+      </c>
+      <c r="F511" t="n">
+        <v>371.46</v>
+      </c>
+      <c r="G511" t="n">
+        <v>368.81</v>
+      </c>
+      <c r="H511" t="n">
+        <v>366.93</v>
+      </c>
+      <c r="I511" t="n">
+        <v>368.2692307692308</v>
+      </c>
+      <c r="J511" t="n">
+        <v>363.85</v>
+      </c>
+      <c r="K511" t="n">
+        <v>374.15</v>
+      </c>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr"/>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:13:07+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>386.36</v>
+      </c>
+      <c r="C512" t="n">
+        <v>369.24</v>
+      </c>
+      <c r="D512" t="n">
+        <v>365.56</v>
+      </c>
+      <c r="E512" t="n">
+        <v>375.25</v>
+      </c>
+      <c r="F512" t="n">
+        <v>388.29</v>
+      </c>
+      <c r="G512" t="n">
+        <v>381.8133333333333</v>
+      </c>
+      <c r="H512" t="n">
+        <v>378.1733333333333</v>
+      </c>
+      <c r="I512" t="n">
+        <v>380.9361538461538</v>
+      </c>
+      <c r="J512" t="n">
+        <v>378.28</v>
+      </c>
+      <c r="K512" t="n">
+        <v>387.14</v>
+      </c>
+      <c r="L512" t="n">
+        <v>392.0266666666667</v>
+      </c>
+      <c r="M512" t="n">
+        <v>391.1961538461539</v>
+      </c>
+      <c r="N512" t="n">
+        <v>386.69</v>
+      </c>
+      <c r="O512" t="n">
+        <v>386.96</v>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>378.05</v>
+      </c>
+      <c r="C513" t="n">
+        <v>398.79</v>
+      </c>
+      <c r="D513" t="n">
+        <v>413.73</v>
+      </c>
+      <c r="E513" t="n">
+        <v>401.34</v>
+      </c>
+      <c r="F513" t="n">
+        <v>404.8436363636364</v>
+      </c>
+      <c r="G513" t="n">
+        <v>420.4033333333333</v>
+      </c>
+      <c r="H513" t="n">
+        <v>415.6133333333333</v>
+      </c>
+      <c r="I513" t="n">
+        <v>402.5030769230769</v>
+      </c>
+      <c r="J513" t="n">
+        <v>402.78</v>
+      </c>
+      <c r="K513" t="n">
+        <v>406.05</v>
+      </c>
+      <c r="L513" t="n">
+        <v>401.5066666666667</v>
+      </c>
+      <c r="M513" t="n">
+        <v>414.6130769230769</v>
+      </c>
+      <c r="N513" t="n">
+        <v>408.3236363636364</v>
+      </c>
+      <c r="O513" t="n">
+        <v>404.23</v>
+      </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>380.25</v>
+      </c>
+      <c r="C514" t="n">
+        <v>386.9933333333333</v>
+      </c>
+      <c r="D514" t="n">
+        <v>405.9533333333333</v>
+      </c>
+      <c r="E514" t="n">
+        <v>393.5466666666667</v>
+      </c>
+      <c r="F514" t="n">
+        <v>399.819090909091</v>
+      </c>
+      <c r="G514" t="n">
+        <v>411.3622222222222</v>
+      </c>
+      <c r="H514" t="n">
+        <v>407.6022222222222</v>
+      </c>
+      <c r="I514" t="n">
+        <v>400.3653846153846</v>
+      </c>
+      <c r="J514" t="n">
+        <v>397.7866666666667</v>
+      </c>
+      <c r="K514" t="n">
+        <v>408.0766666666667</v>
+      </c>
+      <c r="L514" t="n">
+        <v>401.5711111111111</v>
+      </c>
+      <c r="M514" t="n">
+        <v>413.6553846153847</v>
+      </c>
+      <c r="N514" t="n">
+        <v>402.879090909091</v>
+      </c>
+      <c r="O514" t="n">
+        <v>409.84</v>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>376.95</v>
+      </c>
+      <c r="C515" t="n">
+        <v>397.4966666666666</v>
+      </c>
+      <c r="D515" t="n">
+        <v>404.4566666666667</v>
+      </c>
+      <c r="E515" t="n">
+        <v>387.4833333333333</v>
+      </c>
+      <c r="F515" t="n">
+        <v>399.2736363636364</v>
+      </c>
+      <c r="G515" t="n">
+        <v>401.8577777777778</v>
+      </c>
+      <c r="H515" t="n">
+        <v>398.3777777777778</v>
+      </c>
+      <c r="I515" t="n">
+        <v>389.6553846153847</v>
+      </c>
+      <c r="J515" t="n">
+        <v>386.2433333333333</v>
+      </c>
+      <c r="K515" t="n">
+        <v>392.6433333333333</v>
+      </c>
+      <c r="L515" t="n">
+        <v>396.9988888888889</v>
+      </c>
+      <c r="M515" t="n">
+        <v>395.1853846153846</v>
+      </c>
+      <c r="N515" t="n">
+        <v>395.4736363636364</v>
+      </c>
+      <c r="O515" t="n">
+        <v>394.76</v>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25089,7 +25555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30237,6 +30703,96 @@
       </c>
       <c r="B514" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -30405,28 +30961,28 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02160005264799495</v>
+        <v>-0.06639629063736587</v>
       </c>
       <c r="J2" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K2" t="n">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="L2" t="n">
-        <v>7.362350041550947e-05</v>
+        <v>0.0006895385474351423</v>
       </c>
       <c r="M2" t="n">
-        <v>15.0243218346962</v>
+        <v>15.19887316613997</v>
       </c>
       <c r="N2" t="n">
-        <v>357.3008151047517</v>
+        <v>365.6988594860743</v>
       </c>
       <c r="O2" t="n">
-        <v>18.90240236331752</v>
+        <v>19.12325441670623</v>
       </c>
       <c r="P2" t="n">
-        <v>391.0200797585909</v>
+        <v>391.8856855842359</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30482,28 +31038,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5419068910125534</v>
+        <v>0.5663846165580709</v>
       </c>
       <c r="J3" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K3" t="n">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0394676225619951</v>
+        <v>0.0436483454623342</v>
       </c>
       <c r="M3" t="n">
-        <v>14.8569876681217</v>
+        <v>14.93706035105987</v>
       </c>
       <c r="N3" t="n">
-        <v>395.0404606734053</v>
+        <v>396.0765450584603</v>
       </c>
       <c r="O3" t="n">
-        <v>19.87562478699488</v>
+        <v>19.90167191615971</v>
       </c>
       <c r="P3" t="n">
-        <v>351.4175609201082</v>
+        <v>351.1771927668031</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30559,28 +31115,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7354043860969504</v>
+        <v>0.7390016998655323</v>
       </c>
       <c r="J4" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K4" t="n">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07790795982317278</v>
+        <v>0.0785825454226915</v>
       </c>
       <c r="M4" t="n">
-        <v>14.88585552347776</v>
+        <v>15.06942943009058</v>
       </c>
       <c r="N4" t="n">
-        <v>362.2529576397747</v>
+        <v>368.6289202704623</v>
       </c>
       <c r="O4" t="n">
-        <v>19.0329440087385</v>
+        <v>19.19971146320857</v>
       </c>
       <c r="P4" t="n">
-        <v>355.1523756442703</v>
+        <v>355.116202368103</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30636,28 +31192,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8317942785582887</v>
+        <v>0.863921716716222</v>
       </c>
       <c r="J5" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K5" t="n">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1218306586749084</v>
+        <v>0.1327125585301152</v>
       </c>
       <c r="M5" t="n">
-        <v>13.13124197616689</v>
+        <v>13.08963739795928</v>
       </c>
       <c r="N5" t="n">
-        <v>284.9803467494134</v>
+        <v>283.5654139906961</v>
       </c>
       <c r="O5" t="n">
-        <v>16.88136092705246</v>
+        <v>16.83940064226444</v>
       </c>
       <c r="P5" t="n">
-        <v>349.7596701143393</v>
+        <v>349.4505739148055</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30713,28 +31269,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.736368289208001</v>
+        <v>0.7905082878470214</v>
       </c>
       <c r="J6" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K6" t="n">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1074346791106258</v>
+        <v>0.1232155133682837</v>
       </c>
       <c r="M6" t="n">
-        <v>12.32353762577074</v>
+        <v>12.37709704801162</v>
       </c>
       <c r="N6" t="n">
-        <v>253.8127690493895</v>
+        <v>254.8185089571604</v>
       </c>
       <c r="O6" t="n">
-        <v>15.93150241029984</v>
+        <v>15.96303570619199</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1941045576531</v>
+        <v>355.6655493398637</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -30790,28 +31346,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6335794276415549</v>
+        <v>0.7002621454610143</v>
       </c>
       <c r="J7" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K7" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06431297358266552</v>
+        <v>0.07734026199194233</v>
       </c>
       <c r="M7" t="n">
-        <v>14.19070407583865</v>
+        <v>14.28027151112743</v>
       </c>
       <c r="N7" t="n">
-        <v>314.0214006653447</v>
+        <v>319.6405948201889</v>
       </c>
       <c r="O7" t="n">
-        <v>17.7206489910879</v>
+        <v>17.87849531756487</v>
       </c>
       <c r="P7" t="n">
-        <v>357.039368473763</v>
+        <v>356.3595620703513</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -30867,28 +31423,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4621795676236948</v>
+        <v>0.524306085470011</v>
       </c>
       <c r="J8" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K8" t="n">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03970884055166124</v>
+        <v>0.0502651774264794</v>
       </c>
       <c r="M8" t="n">
-        <v>13.30320109059623</v>
+        <v>13.43896263205419</v>
       </c>
       <c r="N8" t="n">
-        <v>286.3529107965521</v>
+        <v>292.6748107632935</v>
       </c>
       <c r="O8" t="n">
-        <v>16.92196533492939</v>
+        <v>17.10774125252347</v>
       </c>
       <c r="P8" t="n">
-        <v>357.0877153247113</v>
+        <v>356.473395587667</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -30944,28 +31500,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.735855396827898</v>
+        <v>0.7848414476969864</v>
       </c>
       <c r="J9" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K9" t="n">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1420311726097204</v>
+        <v>0.1586363198970577</v>
       </c>
       <c r="M9" t="n">
-        <v>10.2038818677337</v>
+        <v>10.2946215815998</v>
       </c>
       <c r="N9" t="n">
-        <v>184.229623044941</v>
+        <v>187.0343360388166</v>
       </c>
       <c r="O9" t="n">
-        <v>13.5731213449575</v>
+        <v>13.67604972346973</v>
       </c>
       <c r="P9" t="n">
-        <v>350.1440891784622</v>
+        <v>349.6667130708523</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31021,28 +31577,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5596973312027829</v>
+        <v>0.6022903919735212</v>
       </c>
       <c r="J10" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K10" t="n">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09494231551035226</v>
+        <v>0.1085656087933748</v>
       </c>
       <c r="M10" t="n">
-        <v>9.992056355360793</v>
+        <v>10.06947787103269</v>
       </c>
       <c r="N10" t="n">
-        <v>163.942217023033</v>
+        <v>166.3240123557189</v>
       </c>
       <c r="O10" t="n">
-        <v>12.80399222988803</v>
+        <v>12.89666671491975</v>
       </c>
       <c r="P10" t="n">
-        <v>354.7844218893499</v>
+        <v>354.3597757909768</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31098,28 +31654,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4682241173316136</v>
+        <v>0.5264776130608235</v>
       </c>
       <c r="J11" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K11" t="n">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06432442136490335</v>
+        <v>0.07891898456178914</v>
       </c>
       <c r="M11" t="n">
-        <v>10.70731248660289</v>
+        <v>10.84989599331459</v>
       </c>
       <c r="N11" t="n">
-        <v>178.9860224376773</v>
+        <v>184.3109427323413</v>
       </c>
       <c r="O11" t="n">
-        <v>13.37856578403221</v>
+        <v>13.57611662929946</v>
       </c>
       <c r="P11" t="n">
-        <v>358.420588572418</v>
+        <v>357.8490290345264</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -31175,28 +31731,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6129146148460952</v>
+        <v>0.6870343265491882</v>
       </c>
       <c r="J12" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K12" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06971811330533317</v>
+        <v>0.08529667556352094</v>
       </c>
       <c r="M12" t="n">
-        <v>12.65750215909151</v>
+        <v>12.83278380524737</v>
       </c>
       <c r="N12" t="n">
-        <v>279.355531564627</v>
+        <v>285.5511134285044</v>
       </c>
       <c r="O12" t="n">
-        <v>16.71393225918506</v>
+        <v>16.89825770393221</v>
       </c>
       <c r="P12" t="n">
-        <v>352.820941633613</v>
+        <v>352.0791190774382</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -31252,28 +31808,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2762037832564934</v>
+        <v>0.3630520853912511</v>
       </c>
       <c r="J13" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K13" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009814595989950825</v>
+        <v>0.01662876625162124</v>
       </c>
       <c r="M13" t="n">
-        <v>14.2908652140821</v>
+        <v>14.50690195772565</v>
       </c>
       <c r="N13" t="n">
-        <v>430.7057568553408</v>
+        <v>441.5449984428618</v>
       </c>
       <c r="O13" t="n">
-        <v>20.75345168533034</v>
+        <v>21.01297214681592</v>
       </c>
       <c r="P13" t="n">
-        <v>357.8285158805132</v>
+        <v>356.9625498015271</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -31329,28 +31885,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1430316487612324</v>
+        <v>0.2211088728066885</v>
       </c>
       <c r="J14" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K14" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003431477137052386</v>
+        <v>0.008042995138659026</v>
       </c>
       <c r="M14" t="n">
-        <v>14.11484310087272</v>
+        <v>14.24777215805803</v>
       </c>
       <c r="N14" t="n">
-        <v>328.5513794297265</v>
+        <v>337.5117941053647</v>
       </c>
       <c r="O14" t="n">
-        <v>18.12598630226026</v>
+        <v>18.37149406295973</v>
       </c>
       <c r="P14" t="n">
-        <v>358.2374289098757</v>
+        <v>357.4536083368365</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -31406,28 +31962,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006365159386672202</v>
+        <v>0.07214569595041899</v>
       </c>
       <c r="J15" t="n">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K15" t="n">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L15" t="n">
-        <v>7.108912037478987e-06</v>
+        <v>0.0009008882087142567</v>
       </c>
       <c r="M15" t="n">
-        <v>13.17463815443638</v>
+        <v>13.28224051947175</v>
       </c>
       <c r="N15" t="n">
-        <v>321.5777066708246</v>
+        <v>329.9510368157395</v>
       </c>
       <c r="O15" t="n">
-        <v>17.93258784087853</v>
+        <v>18.16455440729938</v>
       </c>
       <c r="P15" t="n">
-        <v>361.6833027907458</v>
+        <v>361.038486483166</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -31464,7 +32020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P506"/>
+  <dimension ref="A1:P515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67544,6 +68100,704 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-40.789643081830796,172.21080687479696</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-40.789057072474435,172.21129169721152</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-40.788423153384706,172.21161719067013</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-40.787720825626955,172.21171517688475</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-40.78705618691255,172.21190362933007</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-40.78643438090852,172.21223538148064</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-40.785810650044816,172.21261368460893</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-40.78513787488836,172.2127735816708</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-40.7844790991814,172.21299823473754</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>-40.78382311568737,172.21322340390105</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>-40.78314738383597,172.2133289420511</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>-40.78251609782939,172.21369761279124</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>-40.78184246771903,172.2138369894079</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>-40.78119105829232,172.2141045108624</t>
+        </is>
+      </c>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-40.789670054603334,172.21089658685585</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-40.78893404970286,172.21088252290886</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-40.787659082851356,172.2115098219665</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-40.787014767500274,172.21174787985314</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-40.78636979115664,172.21194728137897</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>-40.78572609821922,172.21222276484252</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>-40.78510184711158,172.2126070098232</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>-40.78444940716837,172.21286095620786</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
+      <c r="M508" t="inlineStr"/>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-40.78966365934533,172.21087531605392</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-40.78901024048834,172.2111359330661</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-40.78838400917604,172.21148699644084</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-40.78771049837222,172.2116808285845</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-40.78703970301214,172.21184164477748</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-40.786414573649395,172.21214703156437</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-40.78576974263067,172.2124245510023</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>-40.785113250781265,172.21265973373448</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>-40.78447501479288,172.2129793508582</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>-40.78379268510518,172.21307356869593</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>-40.783140679370085,172.21329204535087</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>-40.78247429739943,172.21345662571042</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>-40.78183463002428,172.21379180369206</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>-40.78119165950322,172.2141079769598</t>
+        </is>
+      </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-40.789610144469236,172.21069732479043</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-40.78900454110975,172.2111169768786</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-40.788382882562914,172.211483249318</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-40.78769442759733,172.21162737750763</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>-40.78703314460122,172.21181698317173</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>-40.78640444771081,172.21210186513747</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>-40.78576416245527,172.21239875143874</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>-40.785107584034705,172.21263353399044</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>-40.78445958120053,172.21290799489287</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>-40.78379140617937,172.21306727149857</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>-40.783113018960826,172.21313982252963</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>-40.7824616145736,172.2133835075451</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>-40.78181494097234,172.21367829327266</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>-40.78117282151294,172.21399937260364</t>
+        </is>
+      </c>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-40.789690731473016,172.21096535880335</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-40.78907457918925,172.21134992513885</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-40.78841537757155,172.21159132814725</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-40.78772790558932,172.21173872476317</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>-40.787076941164436,172.21198167194302</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>-40.78644114849129,172.21226556824058</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>-40.785792000268835,172.21252745799458</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>-40.785133467439316,172.2127532040764</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>-40.78448912523271,172.21304458954185</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>-40.7838116674243,172.2131670343997</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr"/>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:13:07+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-40.7895560660019,172.21051746022883</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-40.78897898223057,172.21103196796972</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-40.788357357011506,172.21139835130506</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-40.787691423298554,172.21161738528173</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-40.787026872862334,172.21179339956242</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>-40.78640800991381,172.21211775422006</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-40.7857642802499,172.21239929605392</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>-40.785102237791506,172.21260881609692</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>-40.784453549102984,172.2128801060423</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>-40.78378146155073,172.21301830602692</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>-40.7831188810481,172.21317208310157</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>-40.782460214788856,172.21337543761928</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>-40.78180524488871,172.21362239411664</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>-40.78114069649278,172.2138141676605</t>
+        </is>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-40.789583602315055,172.21060904563961</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-40.788881064860384,172.21070629702635</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-40.788197740831734,172.21086747387824</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-40.7876049720241,172.21132985202496</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-40.78697762642894,172.21160821906258</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-40.78630966342985,172.21167908734571</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-40.78567197230632,172.21197252099472</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-40.785049065237864,172.21236297893444</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>-40.78439314557692,172.21260083786328</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>-40.78373748945716,172.21280179714822</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>-40.78309902578016,172.21306281468526</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>-40.782413284676124,172.21310488200328</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>-40.78176188910962,172.213372444637</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>-40.78110608611196,172.21361463640122</t>
+        </is>
+      </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-40.78957631232341,172.21058479919367</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-40.788920154600106,172.2108363081305</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-40.78822350976939,172.21095317967837</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-40.78763079592375,172.2114157408885</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-40.786992574290196,172.2116644270964</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-40.78633270481949,172.2117818608981</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-40.78569172375217,172.21206383879988</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-40.7850543356726,172.21238734605552</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-40.78440545644531,172.212657755336</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>-40.78373277675332,172.21277859297052</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>-40.78309889080494,172.21306207188564</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>-40.78241520401017,172.21311594702883</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>-40.781772800525694,172.21343534948582</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>-40.781094843175524,172.21354982056013</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-40.78958724730899,172.2106211688646</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-40.78888535049025,172.21072055084994</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-40.78822846915049,172.21096967428713</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-40.78765088727141,172.21148256379348</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-40.786994196998286,172.211670528929</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-40.78635692692208,172.21188990140473</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-40.78571446659016,172.2121689873312</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-40.7850807408718,172.21250942723267</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>-40.78443391597618,172.21278933432862</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>-40.78376866449624,172.21295529592126</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>-40.783108467052024,172.21311477224435</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>-40.782452219972264,172.21332934661788</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>-40.78178764174581,172.21352091019733</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>-40.78112506474779,172.21372404928894</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -30806,7 +30806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30897,35 +30897,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -30984,27 +30989,28 @@
       <c r="P2" t="n">
         <v>391.8856855842359</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.21477565673393 -40.79083624602895, 172.2048235550529 -40.78784393443153)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.2147756567339</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-40.79083624602895</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.2048235550529</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-40.78784393443153</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.2097996058934</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-40.78934009023024</v>
       </c>
     </row>
@@ -31061,27 +31067,28 @@
       <c r="P3" t="n">
         <v>351.1771927668031</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.21510144864425 -40.790202425116384, 172.20514939934986 -40.78721012301851)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.2151014486442</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-40.79020242511638</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.2051493993499</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-40.78721012301851</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.2101254239971</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-40.78870627406745</v>
       </c>
     </row>
@@ -31138,27 +31145,28 @@
       <c r="P4" t="n">
         <v>355.116202368103</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.21542724055473 -40.78956859815408, 172.20547524364633 -40.78657630555541)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.2154272405547</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-40.78956859815408</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.2054752436463</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-40.78657630555541</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.2104512421005</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-40.78807245185475</v>
       </c>
     </row>
@@ -31215,27 +31223,28 @@
       <c r="P5" t="n">
         <v>349.4505739148055</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.2157530324654 -40.78893476514229, 172.2058010879425 -40.785942482041946)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.2157530324654</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-40.78893476514229</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.2058010879425</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-40.78594248204195</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.210777060204</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-40.78743862359212</v>
       </c>
     </row>
@@ -31292,27 +31301,28 @@
       <c r="P6" t="n">
         <v>355.6655493398637</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.21613716147442 -40.78818193607604, 172.20603504406287 -40.78549533772249)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.2161371614744</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-40.78818193607604</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.2060350440629</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-40.78549533772249</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.2110861027687</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-40.78683863689926</v>
       </c>
     </row>
@@ -31369,27 +31379,28 @@
       <c r="P7" t="n">
         <v>356.3595620703513</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.21645803936704 -40.7873809705668, 172.20619233653827 -40.785079401791826)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.216458039367</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-40.7873809705668</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.2061923365383</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-40.78507940179183</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.2113251879526</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-40.78623018617931</v>
       </c>
     </row>
@@ -31446,27 +31457,28 @@
       <c r="P8" t="n">
         <v>356.473395587667</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.2167101260748 -40.786696574828454, 172.2064158450833 -40.784469941891274)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.2167101260748</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-40.78669657482845</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.2064158450833</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-40.78446994189127</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.2115629855791</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-40.78558325835986</v>
       </c>
     </row>
@@ -31523,27 +31535,28 @@
       <c r="P9" t="n">
         <v>349.6667130708523</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.21695109914114 -40.78604133778076, 172.20665687943614 -40.78381471231437)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.2169510991411</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-40.78604133778076</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.2066568794361</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-40.78381471231437</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.2118039892886</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-40.78492802504756</v>
       </c>
     </row>
@@ -31600,27 +31613,28 @@
       <c r="P10" t="n">
         <v>354.3597757909768</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.2171920722079 -40.785386094268475, 172.20689791378817 -40.783159476272424)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.2171920722079</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-40.78538609426847</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.2068979137882</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-40.78315947627242</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.212044992998</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-40.78427278527045</v>
       </c>
     </row>
@@ -31677,27 +31691,28 @@
       <c r="P11" t="n">
         <v>357.8490290345264</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.21745090567387 -40.78468160312593, 172.20711077583903 -40.782581499522834)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.2174509056739</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-40.78468160312593</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.207110775839</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-40.78258149952283</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.2122808407564</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-40.78363155132438</v>
       </c>
     </row>
@@ -31754,27 +31769,28 @@
       <c r="P12" t="n">
         <v>352.0791190774382</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.21769072088665 -40.78393986626486, 172.20728105659515 -40.78204825290386)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.2176907208867</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-40.78393986626486</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.2072810565951</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-40.78204825290386</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.2124858887409</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-40.78299405958436</v>
       </c>
     </row>
@@ -31831,27 +31847,28 @@
       <c r="P13" t="n">
         <v>356.9625498015271</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.2178953170328 -40.78324412193404, 172.20746058386493 -40.7814340750075)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.2178953170328</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-40.78324412193404</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.2074605838649</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-40.7814340750075</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.2126779504489</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-40.78233909847077</v>
       </c>
     </row>
@@ -31908,27 +31925,28 @@
       <c r="P14" t="n">
         <v>357.4536083368365</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.21809016729472 -40.78258011600785, 172.20765549917158 -40.780770075342986)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.2180901672947</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-40.78258011600785</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.2076554991716</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-40.78077007534299</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.2128728332331</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-40.78167509567542</v>
       </c>
     </row>
@@ -31985,27 +32003,28 @@
       <c r="P15" t="n">
         <v>361.038486483166</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.21828501755715 -40.78191610344363, 172.20785041447735 -40.78010606904016)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.2182850175572</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-40.78191610344363</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.2078504144773</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-40.78010606904016</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.2130677160172</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-40.78101108624189</v>
       </c>
     </row>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P515"/>
+  <dimension ref="A1:P519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25544,6 +25544,222 @@
         </is>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>358.14</v>
+      </c>
+      <c r="C516" t="n">
+        <v>350.9933333333333</v>
+      </c>
+      <c r="D516" t="n">
+        <v>358.5133333333333</v>
+      </c>
+      <c r="E516" t="n">
+        <v>363.2366666666667</v>
+      </c>
+      <c r="F516" t="n">
+        <v>367.9181818181818</v>
+      </c>
+      <c r="G516" t="n">
+        <v>376.2322222222222</v>
+      </c>
+      <c r="H516" t="n">
+        <v>379.7722222222222</v>
+      </c>
+      <c r="I516" t="n">
+        <v>372.2584615384616</v>
+      </c>
+      <c r="J516" t="n">
+        <v>372.8766666666667</v>
+      </c>
+      <c r="K516" t="n">
+        <v>385.7466666666666</v>
+      </c>
+      <c r="L516" t="n">
+        <v>383.8211111111111</v>
+      </c>
+      <c r="M516" t="n">
+        <v>382.3784615384615</v>
+      </c>
+      <c r="N516" t="n">
+        <v>378.3281818181818</v>
+      </c>
+      <c r="O516" t="n">
+        <v>374.22</v>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>392.65</v>
+      </c>
+      <c r="C517" t="n">
+        <v>383.4866666666667</v>
+      </c>
+      <c r="D517" t="n">
+        <v>390.4866666666667</v>
+      </c>
+      <c r="E517" t="n">
+        <v>386.9433333333333</v>
+      </c>
+      <c r="F517" t="n">
+        <v>386.7872727272728</v>
+      </c>
+      <c r="G517" t="n">
+        <v>393.6977777777778</v>
+      </c>
+      <c r="H517" t="n">
+        <v>395.3777777777778</v>
+      </c>
+      <c r="I517" t="n">
+        <v>392.55</v>
+      </c>
+      <c r="J517" t="n">
+        <v>389.6333333333333</v>
+      </c>
+      <c r="K517" t="n">
+        <v>399.0433333333333</v>
+      </c>
+      <c r="L517" t="n">
+        <v>403.2088888888889</v>
+      </c>
+      <c r="M517" t="n">
+        <v>401.06</v>
+      </c>
+      <c r="N517" t="n">
+        <v>393.2472727272727</v>
+      </c>
+      <c r="O517" t="n">
+        <v>391.59</v>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>414.19</v>
+      </c>
+      <c r="C518" t="n">
+        <v>365.0133333333333</v>
+      </c>
+      <c r="D518" t="n">
+        <v>395.4533333333333</v>
+      </c>
+      <c r="E518" t="n">
+        <v>384.8466666666667</v>
+      </c>
+      <c r="F518" t="n">
+        <v>394.3790909090909</v>
+      </c>
+      <c r="G518" t="n">
+        <v>396.5955555555556</v>
+      </c>
+      <c r="H518" t="n">
+        <v>389.5455555555556</v>
+      </c>
+      <c r="I518" t="n">
+        <v>387.1223076923077</v>
+      </c>
+      <c r="J518" t="n">
+        <v>391.6866666666667</v>
+      </c>
+      <c r="K518" t="n">
+        <v>391.9966666666666</v>
+      </c>
+      <c r="L518" t="n">
+        <v>390.7677777777778</v>
+      </c>
+      <c r="M518" t="n">
+        <v>396.8723076923077</v>
+      </c>
+      <c r="N518" t="n">
+        <v>398.8890909090909</v>
+      </c>
+      <c r="O518" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C519" t="n">
+        <v>375.8666666666667</v>
+      </c>
+      <c r="D519" t="n">
+        <v>400.5266666666667</v>
+      </c>
+      <c r="E519" t="n">
+        <v>386.9033333333333</v>
+      </c>
+      <c r="F519" t="n">
+        <v>397.7490909090909</v>
+      </c>
+      <c r="G519" t="n">
+        <v>403.8844444444445</v>
+      </c>
+      <c r="H519" t="n">
+        <v>395.7144444444445</v>
+      </c>
+      <c r="I519" t="n">
+        <v>388.9169230769231</v>
+      </c>
+      <c r="J519" t="n">
+        <v>394.1933333333333</v>
+      </c>
+      <c r="K519" t="n">
+        <v>398.9033333333333</v>
+      </c>
+      <c r="L519" t="n">
+        <v>392.4322222222222</v>
+      </c>
+      <c r="M519" t="n">
+        <v>398.9369230769231</v>
+      </c>
+      <c r="N519" t="n">
+        <v>408.889090909091</v>
+      </c>
+      <c r="O519" t="n">
+        <v>401.81</v>
+      </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25555,7 +25771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30793,6 +31009,46 @@
       </c>
       <c r="B523" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -30966,28 +31222,28 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06639629063736587</v>
+        <v>-0.06312675759273918</v>
       </c>
       <c r="J2" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K2" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006895385474351423</v>
+        <v>0.0006260481810431706</v>
       </c>
       <c r="M2" t="n">
-        <v>15.19887316613997</v>
+        <v>15.22557470071682</v>
       </c>
       <c r="N2" t="n">
-        <v>365.6988594860743</v>
+        <v>366.4701403101514</v>
       </c>
       <c r="O2" t="n">
-        <v>19.12325441670623</v>
+        <v>19.14340984020745</v>
       </c>
       <c r="P2" t="n">
-        <v>391.8856855842359</v>
+        <v>391.8526665388739</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31044,28 +31300,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5663846165580709</v>
+        <v>0.5718237635245285</v>
       </c>
       <c r="J3" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K3" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0436483454623342</v>
+        <v>0.04505033445848083</v>
       </c>
       <c r="M3" t="n">
-        <v>14.93706035105987</v>
+        <v>14.90015592433392</v>
       </c>
       <c r="N3" t="n">
-        <v>396.0765450584603</v>
+        <v>393.8002883268496</v>
       </c>
       <c r="O3" t="n">
-        <v>19.90167191615971</v>
+        <v>19.84440193925858</v>
       </c>
       <c r="P3" t="n">
-        <v>351.1771927668031</v>
+        <v>351.1234520864696</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31122,28 +31378,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7390016998655323</v>
+        <v>0.7594415342186296</v>
       </c>
       <c r="J4" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K4" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0785825454226915</v>
+        <v>0.08316347814621927</v>
       </c>
       <c r="M4" t="n">
-        <v>15.06942943009058</v>
+        <v>15.11114967259679</v>
       </c>
       <c r="N4" t="n">
-        <v>368.6289202704623</v>
+        <v>369.0452288850511</v>
       </c>
       <c r="O4" t="n">
-        <v>19.19971146320857</v>
+        <v>19.21054993708017</v>
       </c>
       <c r="P4" t="n">
-        <v>355.116202368103</v>
+        <v>354.918329296172</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31200,28 +31456,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.863921716716222</v>
+        <v>0.8782949923769471</v>
       </c>
       <c r="J5" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K5" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1327125585301152</v>
+        <v>0.1378442859814762</v>
       </c>
       <c r="M5" t="n">
-        <v>13.08963739795928</v>
+        <v>13.08484595648188</v>
       </c>
       <c r="N5" t="n">
-        <v>283.5654139906961</v>
+        <v>282.5728058168587</v>
       </c>
       <c r="O5" t="n">
-        <v>16.83940064226444</v>
+        <v>16.80990201687263</v>
       </c>
       <c r="P5" t="n">
-        <v>349.4505739148055</v>
+        <v>349.3110780811548</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31278,28 +31534,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7905082878470214</v>
+        <v>0.80829500294358</v>
       </c>
       <c r="J6" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K6" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1232155133682837</v>
+        <v>0.1289499902497085</v>
       </c>
       <c r="M6" t="n">
-        <v>12.37709704801162</v>
+        <v>12.39845333596821</v>
       </c>
       <c r="N6" t="n">
-        <v>254.8185089571604</v>
+        <v>254.7380870971689</v>
       </c>
       <c r="O6" t="n">
-        <v>15.96303570619199</v>
+        <v>15.96051650471152</v>
       </c>
       <c r="P6" t="n">
-        <v>355.6655493398637</v>
+        <v>355.4901520077004</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31356,28 +31612,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7002621454610143</v>
+        <v>0.7311386859975169</v>
       </c>
       <c r="J7" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K7" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07734026199194233</v>
+        <v>0.08400299399367028</v>
       </c>
       <c r="M7" t="n">
-        <v>14.28027151112743</v>
+        <v>14.31953466008266</v>
       </c>
       <c r="N7" t="n">
-        <v>319.6405948201889</v>
+        <v>320.6920209996899</v>
       </c>
       <c r="O7" t="n">
-        <v>17.87849531756487</v>
+        <v>17.90787594885809</v>
       </c>
       <c r="P7" t="n">
-        <v>356.3595620703513</v>
+        <v>356.0420453934785</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31434,28 +31690,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.524306085470011</v>
+        <v>0.5564833564209237</v>
       </c>
       <c r="J8" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K8" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0502651774264794</v>
+        <v>0.05639923183688411</v>
       </c>
       <c r="M8" t="n">
-        <v>13.43896263205419</v>
+        <v>13.50291815085083</v>
       </c>
       <c r="N8" t="n">
-        <v>292.6748107632935</v>
+        <v>294.0033294994136</v>
       </c>
       <c r="O8" t="n">
-        <v>17.10774125252347</v>
+        <v>17.14652528938192</v>
       </c>
       <c r="P8" t="n">
-        <v>356.473395587667</v>
+        <v>356.1526937789325</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31512,28 +31768,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7848414476969864</v>
+        <v>0.8088547446446244</v>
       </c>
       <c r="J9" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K9" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1586363198970577</v>
+        <v>0.1671309400957075</v>
       </c>
       <c r="M9" t="n">
-        <v>10.2946215815998</v>
+        <v>10.34059819581586</v>
       </c>
       <c r="N9" t="n">
-        <v>187.0343360388166</v>
+        <v>187.9670488025881</v>
       </c>
       <c r="O9" t="n">
-        <v>13.67604972346973</v>
+        <v>13.7101075416128</v>
       </c>
       <c r="P9" t="n">
-        <v>349.6667130708523</v>
+        <v>349.4307484534767</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31590,28 +31846,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6022903919735212</v>
+        <v>0.6311653871302584</v>
       </c>
       <c r="J10" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K10" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1085656087933748</v>
+        <v>0.1175720723254952</v>
       </c>
       <c r="M10" t="n">
-        <v>10.06947787103269</v>
+        <v>10.15329535468275</v>
       </c>
       <c r="N10" t="n">
-        <v>166.3240123557189</v>
+        <v>168.1738203140368</v>
       </c>
       <c r="O10" t="n">
-        <v>12.89666671491975</v>
+        <v>12.96818492750766</v>
       </c>
       <c r="P10" t="n">
-        <v>354.3597757909768</v>
+        <v>354.0695292767476</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31668,28 +31924,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5264776130608235</v>
+        <v>0.5636713950542174</v>
       </c>
       <c r="J11" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K11" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07891898456178914</v>
+        <v>0.08860467648208614</v>
       </c>
       <c r="M11" t="n">
-        <v>10.84989599331459</v>
+        <v>10.96693475038531</v>
       </c>
       <c r="N11" t="n">
-        <v>184.3109427323413</v>
+        <v>187.5527638138295</v>
       </c>
       <c r="O11" t="n">
-        <v>13.57611662929946</v>
+        <v>13.69499046417446</v>
       </c>
       <c r="P11" t="n">
-        <v>357.8490290345264</v>
+        <v>357.4812212536192</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31746,28 +32002,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6870343265491882</v>
+        <v>0.7269109871007773</v>
       </c>
       <c r="J12" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K12" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08529667556352094</v>
+        <v>0.09426830441746126</v>
       </c>
       <c r="M12" t="n">
-        <v>12.83278380524737</v>
+        <v>12.92554432766266</v>
       </c>
       <c r="N12" t="n">
-        <v>285.5511134285044</v>
+        <v>288.3457097255837</v>
       </c>
       <c r="O12" t="n">
-        <v>16.89825770393221</v>
+        <v>16.98074526413913</v>
       </c>
       <c r="P12" t="n">
-        <v>352.0791190774382</v>
+        <v>351.6765325757547</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31824,28 +32080,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3630520853912511</v>
+        <v>0.4123564628140611</v>
       </c>
       <c r="J13" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K13" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01662876625162124</v>
+        <v>0.02129664430985623</v>
       </c>
       <c r="M13" t="n">
-        <v>14.50690195772565</v>
+        <v>14.62549092649966</v>
       </c>
       <c r="N13" t="n">
-        <v>441.5449984428618</v>
+        <v>445.6682445564491</v>
       </c>
       <c r="O13" t="n">
-        <v>21.01297214681592</v>
+        <v>21.11085608298368</v>
       </c>
       <c r="P13" t="n">
-        <v>356.9625498015271</v>
+        <v>356.4667592579177</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31902,28 +32158,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2211088728066885</v>
+        <v>0.2748454539932083</v>
       </c>
       <c r="J14" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K14" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008042995138659026</v>
+        <v>0.01218790351011911</v>
       </c>
       <c r="M14" t="n">
-        <v>14.24777215805803</v>
+        <v>14.37320139248905</v>
       </c>
       <c r="N14" t="n">
-        <v>337.5117941053647</v>
+        <v>345.0417982286334</v>
       </c>
       <c r="O14" t="n">
-        <v>18.37149406295973</v>
+        <v>18.57530075742068</v>
       </c>
       <c r="P14" t="n">
-        <v>357.4536083368365</v>
+        <v>356.90953135275</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31980,28 +32236,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07214569595041899</v>
+        <v>0.1186528736561408</v>
       </c>
       <c r="J15" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K15" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009008882087142567</v>
+        <v>0.002412429671516891</v>
       </c>
       <c r="M15" t="n">
-        <v>13.28224051947175</v>
+        <v>13.40376415273186</v>
       </c>
       <c r="N15" t="n">
-        <v>329.9510368157395</v>
+        <v>335.1765084341473</v>
       </c>
       <c r="O15" t="n">
-        <v>18.16455440729938</v>
+        <v>18.30782642571606</v>
       </c>
       <c r="P15" t="n">
-        <v>361.038486483166</v>
+        <v>360.5790611495453</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32039,7 +32295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P515"/>
+  <dimension ref="A1:P519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68817,6 +69073,334 @@
         </is>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-40.78964957650962,172.21082847621966</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-40.78903944423246,172.21123306521</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-40.7883807066529,172.21147601222825</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-40.78773123018779,172.211749782349</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-40.78708747783517,172.21202129328327</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-40.78642223321933,172.2121811968938</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-40.7857603382375,172.21238107044434</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>-40.78512363221526,172.212707731537</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>-40.78446687066094,172.2129416970938</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>-40.78378470150216,172.21303425892253</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>-40.78313606698861,172.21326666206477</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>-40.782477886259244,172.2134773160145</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>-40.78182200259012,172.21371900450615</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>-40.78116622819231,172.21396136109382</t>
+        </is>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-40.789535223185,172.21044813750797</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-40.788931774353436,172.21087495514573</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-40.78827476027634,172.21112363633418</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-40.78765267660343,172.2114885150382</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-40.78703134340374,172.2118102101295</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-40.78637772262411,172.21198265918196</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-40.78572186305995,172.21220318405074</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>-40.78507360429287,172.21247643207323</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>-40.784425558110364,172.21275069272403</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>-40.78375378235474,172.21288201951205</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>-40.78309546057113,172.21304319453128</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>-40.78244044662338,172.2132614721731</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>-40.781792103573395,172.2135466330361</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>-40.78113141765771,172.21376067431422</t>
+        </is>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-40.78946384699342,172.2102107433403</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-40.788992987708795,172.21107855019858</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-40.78825830270544,172.21106889914637</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-40.78765962406868,172.21151162203478</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-40.787008758084696,172.2117252827204</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-40.78637033766651,172.21194971904953</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-40.785736242316275,172.21226966502874</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-40.78508698608185,172.2125383012912</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>-40.784420495719296,172.21272728739117</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>-40.783770168210054,172.21296269989364</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>-40.7831215177045,172.21318659331706</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>-40.782448839204555,172.21330985615347</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>-40.78178079686488,172.2134814489117</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>-40.78112157765664,172.21370394596582</t>
+        </is>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-40.78949827595971,172.2103252523476</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-40.788957024077305,172.2109589353039</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-40.78824149165674,172.21101298642307</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-40.78765280914652,172.21148895587118</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-40.78699873246575,172.21168758355273</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>-40.78635176196498,172.21186686353454</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>-40.785721033012166,172.21219934641852</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>-40.785082561522906,172.2125178448137</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>-40.784414315651105,172.21269871465208</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>-40.78375410790206,172.21288362243317</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>-40.783118031639425,172.21316740858407</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>-40.782444701498065,172.2132860018897</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>-40.781760755879944,172.21336591152485</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>-40.781110935994924,172.21364259618272</t>
+        </is>
+      </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P519"/>
+  <dimension ref="A1:P523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25760,6 +25760,218 @@
         </is>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:24+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>406.1</v>
+      </c>
+      <c r="C520" t="n">
+        <v>372.4433333333333</v>
+      </c>
+      <c r="D520" t="n">
+        <v>367.2833333333333</v>
+      </c>
+      <c r="E520" t="n">
+        <v>373.6266666666667</v>
+      </c>
+      <c r="F520" t="n">
+        <v>378.8136363636364</v>
+      </c>
+      <c r="G520" t="n">
+        <v>378.3222222222223</v>
+      </c>
+      <c r="H520" t="n">
+        <v>377.2322222222222</v>
+      </c>
+      <c r="I520" t="n">
+        <v>383.7761538461539</v>
+      </c>
+      <c r="J520" t="n">
+        <v>385.5066666666667</v>
+      </c>
+      <c r="K520" t="n">
+        <v>385.7066666666667</v>
+      </c>
+      <c r="L520" t="n">
+        <v>388.5811111111111</v>
+      </c>
+      <c r="M520" t="n">
+        <v>392.2961538461539</v>
+      </c>
+      <c r="N520" t="n">
+        <v>390.1036363636364</v>
+      </c>
+      <c r="O520" t="n">
+        <v>391.49</v>
+      </c>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>416.47</v>
+      </c>
+      <c r="C521" t="n">
+        <v>382.23</v>
+      </c>
+      <c r="D521" t="n">
+        <v>401.79</v>
+      </c>
+      <c r="E521" t="n">
+        <v>395.21</v>
+      </c>
+      <c r="F521" t="n">
+        <v>394.8472727272728</v>
+      </c>
+      <c r="G521" t="n">
+        <v>397.2733333333333</v>
+      </c>
+      <c r="H521" t="n">
+        <v>390.1133333333333</v>
+      </c>
+      <c r="I521" t="n">
+        <v>385.8784615384615</v>
+      </c>
+      <c r="J521" t="n">
+        <v>390.54</v>
+      </c>
+      <c r="K521" t="n">
+        <v>389.87</v>
+      </c>
+      <c r="L521" t="n">
+        <v>387.1666666666667</v>
+      </c>
+      <c r="M521" t="n">
+        <v>393.6984615384616</v>
+      </c>
+      <c r="N521" t="n">
+        <v>398.7872727272728</v>
+      </c>
+      <c r="O521" t="n">
+        <v>393.45</v>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>384.87</v>
+      </c>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="n">
+        <v>355.95</v>
+      </c>
+      <c r="E522" t="n">
+        <v>368.51</v>
+      </c>
+      <c r="F522" t="n">
+        <v>378.9336363636364</v>
+      </c>
+      <c r="G522" t="n">
+        <v>376.6233333333333</v>
+      </c>
+      <c r="H522" t="n">
+        <v>371.1633333333333</v>
+      </c>
+      <c r="I522" t="n">
+        <v>376.4915384615384</v>
+      </c>
+      <c r="J522" t="n">
+        <v>372.94</v>
+      </c>
+      <c r="K522" t="n">
+        <v>379.68</v>
+      </c>
+      <c r="L522" t="n">
+        <v>389.1066666666667</v>
+      </c>
+      <c r="M522" t="n">
+        <v>387.3415384615385</v>
+      </c>
+      <c r="N522" t="n">
+        <v>389.4736363636364</v>
+      </c>
+      <c r="O522" t="n">
+        <v>389.01</v>
+      </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>400.57</v>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="n">
+        <v>373.9966666666666</v>
+      </c>
+      <c r="E523" t="n">
+        <v>366.7133333333333</v>
+      </c>
+      <c r="F523" t="n">
+        <v>373.4672727272728</v>
+      </c>
+      <c r="G523" t="n">
+        <v>376.3011111111111</v>
+      </c>
+      <c r="H523" t="n">
+        <v>373.5411111111111</v>
+      </c>
+      <c r="I523" t="n">
+        <v>377.3369230769231</v>
+      </c>
+      <c r="J523" t="n">
+        <v>383.4233333333333</v>
+      </c>
+      <c r="K523" t="n">
+        <v>382.0033333333333</v>
+      </c>
+      <c r="L523" t="n">
+        <v>379.4355555555555</v>
+      </c>
+      <c r="M523" t="n">
+        <v>380.2569230769231</v>
+      </c>
+      <c r="N523" t="n">
+        <v>386.1172727272727</v>
+      </c>
+      <c r="O523" t="n">
+        <v>374.77</v>
+      </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25771,7 +25983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31049,6 +31261,46 @@
       </c>
       <c r="B527" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -31222,28 +31474,28 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06312675759273918</v>
+        <v>-0.04473103232741058</v>
       </c>
       <c r="J2" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K2" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006260481810431706</v>
+        <v>0.0003172576133720906</v>
       </c>
       <c r="M2" t="n">
-        <v>15.22557470071682</v>
+        <v>15.21903086720764</v>
       </c>
       <c r="N2" t="n">
-        <v>366.4701403101514</v>
+        <v>365.5409484181961</v>
       </c>
       <c r="O2" t="n">
-        <v>19.14340984020745</v>
+        <v>19.1191252001287</v>
       </c>
       <c r="P2" t="n">
-        <v>391.8526665388739</v>
+        <v>391.6685039840889</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31300,28 +31552,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5718237635245285</v>
+        <v>0.5816841513027589</v>
       </c>
       <c r="J3" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04505033445848083</v>
+        <v>0.04685515710082344</v>
       </c>
       <c r="M3" t="n">
-        <v>14.90015592433392</v>
+        <v>14.8877083649056</v>
       </c>
       <c r="N3" t="n">
-        <v>393.8002883268496</v>
+        <v>392.6574523253604</v>
       </c>
       <c r="O3" t="n">
-        <v>19.84440193925858</v>
+        <v>19.81558609593369</v>
       </c>
       <c r="P3" t="n">
-        <v>351.1234520864696</v>
+        <v>351.0256529040159</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31378,28 +31630,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7594415342186296</v>
+        <v>0.7598937973010774</v>
       </c>
       <c r="J4" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K4" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08316347814621927</v>
+        <v>0.08403546727860878</v>
       </c>
       <c r="M4" t="n">
-        <v>15.11114967259679</v>
+        <v>15.09505566072774</v>
       </c>
       <c r="N4" t="n">
-        <v>369.0452288850511</v>
+        <v>368.2690730124359</v>
       </c>
       <c r="O4" t="n">
-        <v>19.21054993708017</v>
+        <v>19.19033801193809</v>
       </c>
       <c r="P4" t="n">
-        <v>354.918329296172</v>
+        <v>354.9139915420904</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31456,28 +31708,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8782949923769471</v>
+        <v>0.8847777333433388</v>
       </c>
       <c r="J5" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K5" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1378442859814762</v>
+        <v>0.1410180528807587</v>
       </c>
       <c r="M5" t="n">
-        <v>13.08484595648188</v>
+        <v>13.04021151716874</v>
       </c>
       <c r="N5" t="n">
-        <v>282.5728058168587</v>
+        <v>281.3148384152611</v>
       </c>
       <c r="O5" t="n">
-        <v>16.80990201687263</v>
+        <v>16.77244282790259</v>
       </c>
       <c r="P5" t="n">
-        <v>349.3110780811548</v>
+        <v>349.2479019507941</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31534,28 +31786,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.80829500294358</v>
+        <v>0.8167361556949697</v>
       </c>
       <c r="J6" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1289499902497085</v>
+        <v>0.1328165203847065</v>
       </c>
       <c r="M6" t="n">
-        <v>12.39845333596821</v>
+        <v>12.34383056730095</v>
       </c>
       <c r="N6" t="n">
-        <v>254.7380870971689</v>
+        <v>253.1981129223257</v>
       </c>
       <c r="O6" t="n">
-        <v>15.96051650471152</v>
+        <v>15.9122001282766</v>
       </c>
       <c r="P6" t="n">
-        <v>355.4901520077004</v>
+        <v>355.4065194159048</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31612,28 +31864,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7311386859975169</v>
+        <v>0.7432040272252937</v>
       </c>
       <c r="J7" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K7" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08400299399367028</v>
+        <v>0.08755241989225704</v>
       </c>
       <c r="M7" t="n">
-        <v>14.31953466008266</v>
+        <v>14.25234203655922</v>
       </c>
       <c r="N7" t="n">
-        <v>320.6920209996899</v>
+        <v>318.8617891726391</v>
       </c>
       <c r="O7" t="n">
-        <v>17.90787594885809</v>
+        <v>17.85670151995152</v>
       </c>
       <c r="P7" t="n">
-        <v>356.0420453934785</v>
+        <v>355.9172457611458</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31690,28 +31942,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5564833564209237</v>
+        <v>0.5683156121601038</v>
       </c>
       <c r="J8" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K8" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05639923183688411</v>
+        <v>0.05938324791214855</v>
       </c>
       <c r="M8" t="n">
-        <v>13.50291815085083</v>
+        <v>13.44880296942037</v>
       </c>
       <c r="N8" t="n">
-        <v>294.0033294994136</v>
+        <v>292.3393748544254</v>
       </c>
       <c r="O8" t="n">
-        <v>17.14652528938192</v>
+        <v>17.09793481255632</v>
       </c>
       <c r="P8" t="n">
-        <v>356.1526937789325</v>
+        <v>356.0340251217162</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31768,28 +32020,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8088547446446244</v>
+        <v>0.8251405374436216</v>
       </c>
       <c r="J9" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K9" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1671309400957075</v>
+        <v>0.1741663554229007</v>
       </c>
       <c r="M9" t="n">
-        <v>10.34059819581586</v>
+        <v>10.34221874119181</v>
       </c>
       <c r="N9" t="n">
-        <v>187.9670488025881</v>
+        <v>187.4237900881753</v>
       </c>
       <c r="O9" t="n">
-        <v>13.7101075416128</v>
+        <v>13.69028086228238</v>
       </c>
       <c r="P9" t="n">
-        <v>349.4307484534767</v>
+        <v>349.2697000509548</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31846,28 +32098,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6311653871302584</v>
+        <v>0.6521741223892927</v>
       </c>
       <c r="J10" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K10" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1175720723254952</v>
+        <v>0.125126265124449</v>
       </c>
       <c r="M10" t="n">
-        <v>10.15329535468275</v>
+        <v>10.18708263744732</v>
       </c>
       <c r="N10" t="n">
-        <v>168.1738203140368</v>
+        <v>168.4759755914795</v>
       </c>
       <c r="O10" t="n">
-        <v>12.96818492750766</v>
+        <v>12.97982956711988</v>
       </c>
       <c r="P10" t="n">
-        <v>354.0695292767476</v>
+        <v>353.857036373694</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31924,28 +32176,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5636713950542174</v>
+        <v>0.583675776985277</v>
       </c>
       <c r="J11" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K11" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08860467648208614</v>
+        <v>0.09512148837166357</v>
       </c>
       <c r="M11" t="n">
-        <v>10.96693475038531</v>
+        <v>10.98357663380457</v>
       </c>
       <c r="N11" t="n">
-        <v>187.5527638138295</v>
+        <v>187.3213682173332</v>
       </c>
       <c r="O11" t="n">
-        <v>13.69499046417446</v>
+        <v>13.68653967288055</v>
       </c>
       <c r="P11" t="n">
-        <v>357.4812212536192</v>
+        <v>357.2820464290188</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32002,28 +32254,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7269109871007773</v>
+        <v>0.7538470841584702</v>
       </c>
       <c r="J12" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K12" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09426830441746126</v>
+        <v>0.1013828497499458</v>
       </c>
       <c r="M12" t="n">
-        <v>12.92554432766266</v>
+        <v>12.94506608521936</v>
       </c>
       <c r="N12" t="n">
-        <v>288.3457097255837</v>
+        <v>288.0014490891314</v>
       </c>
       <c r="O12" t="n">
-        <v>16.98074526413913</v>
+        <v>16.97060544262141</v>
       </c>
       <c r="P12" t="n">
-        <v>351.6765325757547</v>
+        <v>351.4026062113339</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32080,28 +32332,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4123564628140611</v>
+        <v>0.4486226208898968</v>
       </c>
       <c r="J13" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K13" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02129664430985623</v>
+        <v>0.02526020212443902</v>
       </c>
       <c r="M13" t="n">
-        <v>14.62549092649966</v>
+        <v>14.6755140110702</v>
       </c>
       <c r="N13" t="n">
-        <v>445.6682445564491</v>
+        <v>445.9130187532774</v>
       </c>
       <c r="O13" t="n">
-        <v>21.11085608298368</v>
+        <v>21.11665264082538</v>
       </c>
       <c r="P13" t="n">
-        <v>356.4667592579177</v>
+        <v>356.0995212830309</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32158,28 +32410,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2748454539932083</v>
+        <v>0.3201554401522153</v>
       </c>
       <c r="J14" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K14" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01218790351011911</v>
+        <v>0.0163955042832532</v>
       </c>
       <c r="M14" t="n">
-        <v>14.37320139248905</v>
+        <v>14.46998570142365</v>
       </c>
       <c r="N14" t="n">
-        <v>345.0417982286334</v>
+        <v>348.8857043641977</v>
       </c>
       <c r="O14" t="n">
-        <v>18.57530075742068</v>
+        <v>18.67848238921454</v>
       </c>
       <c r="P14" t="n">
-        <v>356.90953135275</v>
+        <v>356.4476543305553</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32236,28 +32488,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1186528736561408</v>
+        <v>0.1569840977030826</v>
       </c>
       <c r="J15" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K15" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002412429671516891</v>
+        <v>0.004214691617469568</v>
       </c>
       <c r="M15" t="n">
-        <v>13.40376415273186</v>
+        <v>13.48731823404621</v>
       </c>
       <c r="N15" t="n">
-        <v>335.1765084341473</v>
+        <v>337.6181021770478</v>
       </c>
       <c r="O15" t="n">
-        <v>18.30782642571606</v>
+        <v>18.37438712384845</v>
       </c>
       <c r="P15" t="n">
-        <v>360.5790611495453</v>
+        <v>360.1979676634743</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32295,7 +32547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P519"/>
+  <dimension ref="A1:P523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69401,6 +69653,326 @@
         </is>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:24+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-40.7894906545428,172.21029990385634</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-40.788968367656175,172.21099666394358</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-40.78835164661356,172.2113793585522</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-40.78769680231818,172.21163527577505</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-40.78705506454794,172.21189940888783</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>-40.786416906916855,172.2121574390428</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>-40.78576660052966,172.212410023707</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>-40.785095235892825,172.2125764434663</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>-40.784435732187205,172.21279773137476</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>-40.78378479451509,172.2130347169004</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>-40.783126097523514,172.2132117972952</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>-40.7824580102809,172.21336272837556</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>-40.781798403686096,172.21358295381648</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>-40.781131618064784,172.2137618296779</t>
+        </is>
+      </c>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-40.789456291825,172.210185615297</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-40.788935938463425,172.2108888048874</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-40.788237305458445,172.21099906335118</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-40.787625284326865,172.21139740959845</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-40.787007365262724,172.21172004531175</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-40.7863686103553,172.2119420144951</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-40.78573484247036,172.2122631929795</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>-40.78509005273719,172.21255247965726</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>-40.784423322769435,172.2127403579013</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>-40.78377511340987,172.21298704904228</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>-40.783129059974655,172.2132281004801</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>-40.78245519991663,172.21334652631296</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>-40.78178100091794,172.21348262529273</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>-40.781127690084205,172.2137391845509</t>
+        </is>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-40.78956100332448,172.21053388167468</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-40.788389200431055,172.21150426259663</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-40.78771375670503,172.21169166574757</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-40.78705470755482,172.21189806648215</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-40.786421236484735,172.21217675097986</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-40.785781563160015,172.2124792025224</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>-40.785113195782756,172.21265947945312</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>-40.78446671451703,172.21294097517512</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>-40.78379880844215,172.213103718917</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>-40.78312499678499,172.21320573963146</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>-40.78246793980537,172.21341997330455</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>-40.78179966625792,172.21359023267817</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>-40.781136588156315,172.2137904826997</t>
+        </is>
+      </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-40.78950897907061,172.21036085045608</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-40.78832940143604,172.21130537134135</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-40.78771971006303,172.2117114665331</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-40.78707096965713,172.21195921714394</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-40.786422057658136,172.21218041380664</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-40.785775700838144,172.21245209840566</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>-40.78511111152824,172.21264984306754</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>-40.78444086852731,172.21282147867976</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>-40.783793405954114,172.21307711802547</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>-40.78314525218478,172.2133172109231</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>-40.782482138005044,172.21350182798417</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>-40.78180639267904,172.21362901126503</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>-40.78116512596425,172.21395500658687</t>
+        </is>
+      </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P523"/>
+  <dimension ref="A1:P524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25972,6 +25972,60 @@
         </is>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>398.39</v>
+      </c>
+      <c r="C524" t="n">
+        <v>401.9233333333333</v>
+      </c>
+      <c r="D524" t="n">
+        <v>400.3733333333333</v>
+      </c>
+      <c r="E524" t="n">
+        <v>383.7466666666666</v>
+      </c>
+      <c r="F524" t="n">
+        <v>392.3763636363637</v>
+      </c>
+      <c r="G524" t="n">
+        <v>395.5188888888889</v>
+      </c>
+      <c r="H524" t="n">
+        <v>395.9688888888889</v>
+      </c>
+      <c r="I524" t="n">
+        <v>396.0992307692308</v>
+      </c>
+      <c r="J524" t="n">
+        <v>400.6866666666667</v>
+      </c>
+      <c r="K524" t="n">
+        <v>396.0166666666667</v>
+      </c>
+      <c r="L524" t="n">
+        <v>396.1244444444445</v>
+      </c>
+      <c r="M524" t="n">
+        <v>402.9792307692308</v>
+      </c>
+      <c r="N524" t="n">
+        <v>395.0063636363636</v>
+      </c>
+      <c r="O524" t="n">
+        <v>393.37</v>
+      </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25983,7 +26037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31301,6 +31355,16 @@
       </c>
       <c r="B531" t="n">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -31474,28 +31538,28 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04473103232741058</v>
+        <v>-0.04164637837236339</v>
       </c>
       <c r="J2" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K2" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003172576133720906</v>
+        <v>0.0002759862909393895</v>
       </c>
       <c r="M2" t="n">
-        <v>15.21903086720764</v>
+        <v>15.20216663323657</v>
       </c>
       <c r="N2" t="n">
-        <v>365.5409484181961</v>
+        <v>364.8423711336398</v>
       </c>
       <c r="O2" t="n">
-        <v>19.1191252001287</v>
+        <v>19.10084739307761</v>
       </c>
       <c r="P2" t="n">
-        <v>391.6685039840889</v>
+        <v>391.6374617607131</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31552,28 +31616,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5816841513027589</v>
+        <v>0.5970973382611194</v>
       </c>
       <c r="J3" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K3" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04685515710082344</v>
+        <v>0.04909356253571828</v>
       </c>
       <c r="M3" t="n">
-        <v>14.8877083649056</v>
+        <v>14.94294376350081</v>
       </c>
       <c r="N3" t="n">
-        <v>392.6574523253604</v>
+        <v>394.7660033369312</v>
       </c>
       <c r="O3" t="n">
-        <v>19.81558609593369</v>
+        <v>19.86871921732579</v>
       </c>
       <c r="P3" t="n">
-        <v>351.0256529040159</v>
+        <v>350.8719994896734</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31630,28 +31694,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7598937973010774</v>
+        <v>0.7705378303433527</v>
       </c>
       <c r="J4" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K4" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08403546727860878</v>
+        <v>0.08621366447814027</v>
       </c>
       <c r="M4" t="n">
-        <v>15.09505566072774</v>
+        <v>15.11864313411297</v>
       </c>
       <c r="N4" t="n">
-        <v>368.2690730124359</v>
+        <v>368.951302325898</v>
       </c>
       <c r="O4" t="n">
-        <v>19.19033801193809</v>
+        <v>19.20810512064889</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9139915420904</v>
+        <v>354.809972882552</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31708,28 +31772,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8847777333433388</v>
+        <v>0.8894149203074839</v>
       </c>
       <c r="J5" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K5" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1410180528807587</v>
+        <v>0.1426558007731278</v>
       </c>
       <c r="M5" t="n">
-        <v>13.04021151716874</v>
+        <v>13.03605830099624</v>
       </c>
       <c r="N5" t="n">
-        <v>281.3148384152611</v>
+        <v>280.9788390261955</v>
       </c>
       <c r="O5" t="n">
-        <v>16.77244282790259</v>
+        <v>16.76242342342525</v>
       </c>
       <c r="P5" t="n">
-        <v>349.2479019507941</v>
+        <v>349.2024273408053</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31786,28 +31850,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8167361556949697</v>
+        <v>0.8231824978805566</v>
       </c>
       <c r="J6" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K6" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1328165203847065</v>
+        <v>0.1348476710291158</v>
       </c>
       <c r="M6" t="n">
-        <v>12.34383056730095</v>
+        <v>12.3517121316962</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1981129223257</v>
+        <v>253.1916671852229</v>
       </c>
       <c r="O6" t="n">
-        <v>15.9122001282766</v>
+        <v>15.91199758626248</v>
       </c>
       <c r="P6" t="n">
-        <v>355.4065194159048</v>
+        <v>355.3423054274613</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31864,28 +31928,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7432040272252937</v>
+        <v>0.751702224470741</v>
       </c>
       <c r="J7" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08755241989225704</v>
+        <v>0.0894662102029451</v>
       </c>
       <c r="M7" t="n">
-        <v>14.25234203655922</v>
+        <v>14.26708185223096</v>
       </c>
       <c r="N7" t="n">
-        <v>318.8617891726391</v>
+        <v>319.0872759831434</v>
       </c>
       <c r="O7" t="n">
-        <v>17.85670151995152</v>
+        <v>17.86301419086777</v>
       </c>
       <c r="P7" t="n">
-        <v>355.9172457611458</v>
+        <v>355.8289098235004</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31942,28 +32006,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5683156121601038</v>
+        <v>0.5782617997831547</v>
       </c>
       <c r="J8" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K8" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05938324791214855</v>
+        <v>0.06130035952956325</v>
       </c>
       <c r="M8" t="n">
-        <v>13.44880296942037</v>
+        <v>13.47531174729858</v>
       </c>
       <c r="N8" t="n">
-        <v>292.3393748544254</v>
+        <v>293.1053929282625</v>
       </c>
       <c r="O8" t="n">
-        <v>17.09793481255632</v>
+        <v>17.1203210521375</v>
       </c>
       <c r="P8" t="n">
-        <v>356.0340251217162</v>
+        <v>355.9337775092512</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32020,28 +32084,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8251405374436216</v>
+        <v>0.8349521336963076</v>
       </c>
       <c r="J9" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K9" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1741663554229007</v>
+        <v>0.1770605015149268</v>
       </c>
       <c r="M9" t="n">
-        <v>10.34221874119181</v>
+        <v>10.37597917373067</v>
       </c>
       <c r="N9" t="n">
-        <v>187.4237900881753</v>
+        <v>188.4344138982753</v>
       </c>
       <c r="O9" t="n">
-        <v>13.69028086228238</v>
+        <v>13.72714150499933</v>
       </c>
       <c r="P9" t="n">
-        <v>349.2697000509548</v>
+        <v>349.1722095604553</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32098,28 +32162,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6521741223892927</v>
+        <v>0.664518396116738</v>
       </c>
       <c r="J10" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K10" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L10" t="n">
-        <v>0.125126265124449</v>
+        <v>0.1283641690335312</v>
       </c>
       <c r="M10" t="n">
-        <v>10.18708263744732</v>
+        <v>10.23878034261265</v>
       </c>
       <c r="N10" t="n">
-        <v>168.4759755914795</v>
+        <v>170.1736683617475</v>
       </c>
       <c r="O10" t="n">
-        <v>12.97982956711988</v>
+        <v>13.04506298803296</v>
       </c>
       <c r="P10" t="n">
-        <v>353.857036373694</v>
+        <v>353.7316033604055</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32176,28 +32240,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.583675776985277</v>
+        <v>0.5932964883759428</v>
       </c>
       <c r="J11" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K11" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09512148837166357</v>
+        <v>0.0977249106404412</v>
       </c>
       <c r="M11" t="n">
-        <v>10.98357663380457</v>
+        <v>11.01555556821069</v>
       </c>
       <c r="N11" t="n">
-        <v>187.3213682173332</v>
+        <v>188.1832775829048</v>
       </c>
       <c r="O11" t="n">
-        <v>13.68653967288055</v>
+        <v>13.71799101847296</v>
       </c>
       <c r="P11" t="n">
-        <v>357.2820464290188</v>
+        <v>357.1858098389188</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32254,28 +32318,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7538470841584702</v>
+        <v>0.7647111969511747</v>
       </c>
       <c r="J12" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K12" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1013828497499458</v>
+        <v>0.1038909111318934</v>
       </c>
       <c r="M12" t="n">
-        <v>12.94506608521936</v>
+        <v>12.97458842656675</v>
       </c>
       <c r="N12" t="n">
-        <v>288.0014490891314</v>
+        <v>288.8781604909714</v>
       </c>
       <c r="O12" t="n">
-        <v>16.97060544262141</v>
+        <v>16.99641610725542</v>
       </c>
       <c r="P12" t="n">
-        <v>351.4026062113339</v>
+        <v>351.2915871359482</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32332,28 +32396,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4486226208898968</v>
+        <v>0.4636622711155592</v>
       </c>
       <c r="J13" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K13" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02526020212443902</v>
+        <v>0.02686283855976079</v>
       </c>
       <c r="M13" t="n">
-        <v>14.6755140110702</v>
+        <v>14.72085672294269</v>
       </c>
       <c r="N13" t="n">
-        <v>445.9130187532774</v>
+        <v>447.9014913100456</v>
       </c>
       <c r="O13" t="n">
-        <v>21.11665264082538</v>
+        <v>21.16368331151375</v>
       </c>
       <c r="P13" t="n">
-        <v>356.0995212830309</v>
+        <v>355.9464789868115</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32410,28 +32474,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3201554401522153</v>
+        <v>0.3328202422098582</v>
       </c>
       <c r="J14" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0163955042832532</v>
+        <v>0.01765583617911615</v>
       </c>
       <c r="M14" t="n">
-        <v>14.46998570142365</v>
+        <v>14.50281191257614</v>
       </c>
       <c r="N14" t="n">
-        <v>348.8857043641977</v>
+        <v>350.2546566270609</v>
       </c>
       <c r="O14" t="n">
-        <v>18.67848238921454</v>
+        <v>18.71509168096862</v>
       </c>
       <c r="P14" t="n">
-        <v>356.4476543305553</v>
+        <v>356.3179573004775</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32488,28 +32552,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1569840977030826</v>
+        <v>0.1688558233246275</v>
       </c>
       <c r="J15" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K15" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004214691617469568</v>
+        <v>0.004864576625447481</v>
       </c>
       <c r="M15" t="n">
-        <v>13.48731823404621</v>
+        <v>13.52273360246695</v>
       </c>
       <c r="N15" t="n">
-        <v>337.6181021770478</v>
+        <v>338.8057499221526</v>
       </c>
       <c r="O15" t="n">
-        <v>18.37438712384845</v>
+        <v>18.40667677562011</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1979676634743</v>
+        <v>360.0793715356523</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32547,7 +32611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P523"/>
+  <dimension ref="A1:P524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38220,7 +38284,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>-40.78517339227314,172.212937795019</t>
+          <t>-40.78517339227313,172.212937795019</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -64628,7 +64692,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>-40.78511557209741,172.21267046616106</t>
+          <t>-40.78511557209742,172.21267046616106</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -69025,7 +69089,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>-40.787026872862334,172.21179339956242</t>
+          <t>-40.78702687286233,172.21179339956242</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -69968,6 +70032,88 @@
         </is>
       </c>
       <c r="P523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-40.78951620283591,172.2103848764306</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-40.788870682141585,172.21067176457478</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-40.788241999744024,172.2110146762947</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-40.78766326900091,172.21152374494432</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-40.787014716114655,172.2117476866283</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-40.786373081541804,172.21196195792453</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-40.785720405682255,172.21219644602985</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>-40.78506485376848,172.2124359750898</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>-40.78439830661193,172.2126246991243</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>-40.78376082037325,172.21291667314307</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>-40.78311029852109,172.21312485126975</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>-40.78243660027389,172.21323929766749</t>
+        </is>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>-40.78178857820172,172.21352630894717</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>-40.78112785041002,172.21374010884173</t>
+        </is>
+      </c>
+      <c r="P524" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P524"/>
+  <dimension ref="A1:P525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26026,6 +26026,60 @@
         </is>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>393.08</v>
+      </c>
+      <c r="C525" t="n">
+        <v>388.21</v>
+      </c>
+      <c r="D525" t="n">
+        <v>376.86</v>
+      </c>
+      <c r="E525" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="F525" t="n">
+        <v>375.7527272727273</v>
+      </c>
+      <c r="G525" t="n">
+        <v>376.9366666666667</v>
+      </c>
+      <c r="H525" t="n">
+        <v>381.8966666666667</v>
+      </c>
+      <c r="I525" t="n">
+        <v>382.6923076923077</v>
+      </c>
+      <c r="J525" t="n">
+        <v>381.69</v>
+      </c>
+      <c r="K525" t="n">
+        <v>385.68</v>
+      </c>
+      <c r="L525" t="n">
+        <v>386.5833333333333</v>
+      </c>
+      <c r="M525" t="n">
+        <v>385.8723076923077</v>
+      </c>
+      <c r="N525" t="n">
+        <v>382.3227272727273</v>
+      </c>
+      <c r="O525" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26037,7 +26091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31365,6 +31419,16 @@
       </c>
       <c r="B532" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -31538,28 +31602,28 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04164637837236339</v>
+        <v>-0.04066410271285419</v>
       </c>
       <c r="J2" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K2" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002759862909393895</v>
+        <v>0.0002641345377242255</v>
       </c>
       <c r="M2" t="n">
-        <v>15.20216663323657</v>
+        <v>15.1730787679964</v>
       </c>
       <c r="N2" t="n">
-        <v>364.8423711336398</v>
+        <v>364.0200396545721</v>
       </c>
       <c r="O2" t="n">
-        <v>19.10084739307761</v>
+        <v>19.0793092027613</v>
       </c>
       <c r="P2" t="n">
-        <v>391.6374617607131</v>
+        <v>391.6275655414881</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31616,28 +31680,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5970973382611194</v>
+        <v>0.6064623939063141</v>
       </c>
       <c r="J3" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K3" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04909356253571828</v>
+        <v>0.05064198031398726</v>
       </c>
       <c r="M3" t="n">
-        <v>14.94294376350081</v>
+        <v>14.96231697028211</v>
       </c>
       <c r="N3" t="n">
-        <v>394.7660033369312</v>
+        <v>394.9604086527628</v>
       </c>
       <c r="O3" t="n">
-        <v>19.86871921732579</v>
+        <v>19.87361086095737</v>
       </c>
       <c r="P3" t="n">
-        <v>350.8719994896734</v>
+        <v>350.7785433980644</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31694,28 +31758,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7705378303433527</v>
+        <v>0.7714133864655115</v>
       </c>
       <c r="J4" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K4" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08621366447814027</v>
+        <v>0.08673020683457577</v>
       </c>
       <c r="M4" t="n">
-        <v>15.11864313411297</v>
+        <v>15.08852143459606</v>
       </c>
       <c r="N4" t="n">
-        <v>368.951302325898</v>
+        <v>368.1096808598048</v>
       </c>
       <c r="O4" t="n">
-        <v>19.20810512064889</v>
+        <v>19.18618463529956</v>
       </c>
       <c r="P4" t="n">
-        <v>354.809972882552</v>
+        <v>354.801407505323</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31772,28 +31836,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8894149203074839</v>
+        <v>0.8910954114368556</v>
       </c>
       <c r="J5" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K5" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1426558007731278</v>
+        <v>0.1436014756939953</v>
       </c>
       <c r="M5" t="n">
-        <v>13.03605830099624</v>
+        <v>13.01552638171296</v>
       </c>
       <c r="N5" t="n">
-        <v>280.9788390261955</v>
+        <v>280.3767512902132</v>
       </c>
       <c r="O5" t="n">
-        <v>16.76242342342525</v>
+        <v>16.74445434435572</v>
       </c>
       <c r="P5" t="n">
-        <v>349.2024273408053</v>
+        <v>349.1859295371258</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31850,28 +31914,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8231824978805566</v>
+        <v>0.8228328823975538</v>
       </c>
       <c r="J6" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K6" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1348476710291158</v>
+        <v>0.135226189186373</v>
       </c>
       <c r="M6" t="n">
-        <v>12.3517121316962</v>
+        <v>12.32485621591436</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1916671852229</v>
+        <v>252.6018347872846</v>
       </c>
       <c r="O6" t="n">
-        <v>15.91199758626248</v>
+        <v>15.89345257605422</v>
       </c>
       <c r="P6" t="n">
-        <v>355.3423054274613</v>
+        <v>355.3457918747071</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31928,28 +31992,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.751702224470741</v>
+        <v>0.7523986170346887</v>
       </c>
       <c r="J7" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K7" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0894662102029451</v>
+        <v>0.08994636378943177</v>
       </c>
       <c r="M7" t="n">
-        <v>14.26708185223096</v>
+        <v>14.23725072450003</v>
       </c>
       <c r="N7" t="n">
-        <v>319.0872759831434</v>
+        <v>318.3377885894088</v>
       </c>
       <c r="O7" t="n">
-        <v>17.86301419086777</v>
+        <v>17.84202310808415</v>
       </c>
       <c r="P7" t="n">
-        <v>355.8289098235004</v>
+        <v>355.8216632434051</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32006,28 +32070,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5782617997831547</v>
+        <v>0.5825818332015242</v>
       </c>
       <c r="J8" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K8" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06130035952956325</v>
+        <v>0.06233971505643376</v>
       </c>
       <c r="M8" t="n">
-        <v>13.47531174729858</v>
+        <v>13.46976694445187</v>
       </c>
       <c r="N8" t="n">
-        <v>293.1053929282625</v>
+        <v>292.7195556524833</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1203210521375</v>
+        <v>17.10904894061862</v>
       </c>
       <c r="P8" t="n">
-        <v>355.9337775092512</v>
+        <v>355.8901890971222</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32084,28 +32148,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8349521336963076</v>
+        <v>0.8395236338640767</v>
       </c>
       <c r="J9" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K9" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1770605015149268</v>
+        <v>0.1789889948351079</v>
       </c>
       <c r="M9" t="n">
-        <v>10.37597917373067</v>
+        <v>10.37971100912639</v>
       </c>
       <c r="N9" t="n">
-        <v>188.4344138982753</v>
+        <v>188.3319430782827</v>
       </c>
       <c r="O9" t="n">
-        <v>13.72714150499933</v>
+        <v>13.72340858089865</v>
       </c>
       <c r="P9" t="n">
-        <v>349.1722095604553</v>
+        <v>349.1267368484524</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32162,28 +32226,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.664518396116738</v>
+        <v>0.6689375928538078</v>
       </c>
       <c r="J10" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K10" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1283641690335312</v>
+        <v>0.1301392211574443</v>
       </c>
       <c r="M10" t="n">
-        <v>10.23878034261265</v>
+        <v>10.24197465348607</v>
       </c>
       <c r="N10" t="n">
-        <v>170.1736683617475</v>
+        <v>170.0460231751066</v>
       </c>
       <c r="O10" t="n">
-        <v>13.04506298803296</v>
+        <v>13.04016959916958</v>
       </c>
       <c r="P10" t="n">
-        <v>353.7316033604055</v>
+        <v>353.6866506775017</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32240,28 +32304,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5932964883759428</v>
+        <v>0.5986234603532923</v>
       </c>
       <c r="J11" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K11" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0977249106404412</v>
+        <v>0.09948812222991243</v>
       </c>
       <c r="M11" t="n">
-        <v>11.01555556821069</v>
+        <v>11.02188672805218</v>
       </c>
       <c r="N11" t="n">
-        <v>188.1832775829048</v>
+        <v>188.1457467166994</v>
       </c>
       <c r="O11" t="n">
-        <v>13.71799101847296</v>
+        <v>13.7166230070196</v>
       </c>
       <c r="P11" t="n">
-        <v>357.1858098389188</v>
+        <v>357.1324656942207</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32318,28 +32382,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7647111969511747</v>
+        <v>0.7713597853231258</v>
       </c>
       <c r="J12" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K12" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1038909111318934</v>
+        <v>0.1057095081480131</v>
       </c>
       <c r="M12" t="n">
-        <v>12.97458842656675</v>
+        <v>12.98018203549337</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8781604909714</v>
+        <v>288.7531340248369</v>
       </c>
       <c r="O12" t="n">
-        <v>16.99641610725542</v>
+        <v>16.99273768481221</v>
       </c>
       <c r="P12" t="n">
-        <v>351.2915871359482</v>
+        <v>351.2235687196539</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32396,28 +32460,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4636622711155592</v>
+        <v>0.4712721971047911</v>
       </c>
       <c r="J13" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K13" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02686283855976079</v>
+        <v>0.02779093708551883</v>
       </c>
       <c r="M13" t="n">
-        <v>14.72085672294269</v>
+        <v>14.72573929021911</v>
       </c>
       <c r="N13" t="n">
-        <v>447.9014913100456</v>
+        <v>447.5804083573187</v>
       </c>
       <c r="O13" t="n">
-        <v>21.16368331151375</v>
+        <v>21.15609624569993</v>
       </c>
       <c r="P13" t="n">
-        <v>355.9464789868115</v>
+        <v>355.8689529905255</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32474,28 +32538,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3328202422098582</v>
+        <v>0.3400636066992704</v>
       </c>
       <c r="J14" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K14" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01765583617911615</v>
+        <v>0.01845446724635369</v>
       </c>
       <c r="M14" t="n">
-        <v>14.50281191257614</v>
+        <v>14.50634915002439</v>
       </c>
       <c r="N14" t="n">
-        <v>350.2546566270609</v>
+        <v>350.134854706731</v>
       </c>
       <c r="O14" t="n">
-        <v>18.71509168096862</v>
+        <v>18.71189073040806</v>
       </c>
       <c r="P14" t="n">
-        <v>356.3179573004775</v>
+        <v>356.2436972859339</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32552,28 +32616,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1688558233246275</v>
+        <v>0.1753725770651102</v>
       </c>
       <c r="J15" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K15" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004864576625447481</v>
+        <v>0.005257437650988961</v>
       </c>
       <c r="M15" t="n">
-        <v>13.52273360246695</v>
+        <v>13.52769996262004</v>
       </c>
       <c r="N15" t="n">
-        <v>338.8057499221526</v>
+        <v>338.6117298192813</v>
       </c>
       <c r="O15" t="n">
-        <v>18.40667677562011</v>
+        <v>18.40140564791944</v>
       </c>
       <c r="P15" t="n">
-        <v>360.0793715356523</v>
+        <v>360.0141990164744</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32611,7 +32675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P524"/>
+  <dimension ref="A1:P525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70119,6 +70183,88 @@
         </is>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-40.78953379831683,172.21044339843644</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-40.7889161230287,172.2108228992358</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-40.7883199135332,172.2112738147458</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-40.78768751329075,172.21160438069498</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-40.78706417057155,172.21193365040753</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>-40.786420437964274,172.21217318919665</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>-40.785755100479264,172.21235685407146</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>-40.78509790807026,172.21258879802576</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>-40.784445141958585,172.21284123644037</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>-40.7837848565237,172.213035022219</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>-40.78313028172328,172.21323482410355</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>-40.782470884279334,172.21343694859345</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>-40.78181399723595,172.21367285250477</t>
+        </is>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>-40.78115364273111,172.21388880419073</t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P525"/>
+  <dimension ref="A1:P529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26080,6 +26080,222 @@
         </is>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>412.86</v>
+      </c>
+      <c r="C526" t="n">
+        <v>388.7166666666667</v>
+      </c>
+      <c r="D526" t="n">
+        <v>387.5466666666667</v>
+      </c>
+      <c r="E526" t="n">
+        <v>368.6333333333333</v>
+      </c>
+      <c r="F526" t="n">
+        <v>378.3627272727272</v>
+      </c>
+      <c r="G526" t="n">
+        <v>383.1677777777778</v>
+      </c>
+      <c r="H526" t="n">
+        <v>379.9677777777778</v>
+      </c>
+      <c r="I526" t="n">
+        <v>386.6684615384616</v>
+      </c>
+      <c r="J526" t="n">
+        <v>384.3133333333333</v>
+      </c>
+      <c r="K526" t="n">
+        <v>387.6533333333333</v>
+      </c>
+      <c r="L526" t="n">
+        <v>390.4588888888889</v>
+      </c>
+      <c r="M526" t="n">
+        <v>384.3484615384616</v>
+      </c>
+      <c r="N526" t="n">
+        <v>384.8127272727273</v>
+      </c>
+      <c r="O526" t="n">
+        <v>381.08</v>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>387.13</v>
+      </c>
+      <c r="C527" t="n">
+        <v>386.4666666666667</v>
+      </c>
+      <c r="D527" t="n">
+        <v>360.2566666666667</v>
+      </c>
+      <c r="E527" t="n">
+        <v>368.8633333333333</v>
+      </c>
+      <c r="F527" t="n">
+        <v>373.2827272727272</v>
+      </c>
+      <c r="G527" t="n">
+        <v>359.1144444444445</v>
+      </c>
+      <c r="H527" t="n">
+        <v>363.6044444444445</v>
+      </c>
+      <c r="I527" t="n">
+        <v>373.3707692307692</v>
+      </c>
+      <c r="J527" t="n">
+        <v>370.6133333333333</v>
+      </c>
+      <c r="K527" t="n">
+        <v>375.7633333333333</v>
+      </c>
+      <c r="L527" t="n">
+        <v>379.5022222222222</v>
+      </c>
+      <c r="M527" t="n">
+        <v>376.1107692307692</v>
+      </c>
+      <c r="N527" t="n">
+        <v>370.9527272727273</v>
+      </c>
+      <c r="O527" t="n">
+        <v>360.98</v>
+      </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="C528" t="n">
+        <v>377.4766666666667</v>
+      </c>
+      <c r="D528" t="n">
+        <v>402.4066666666667</v>
+      </c>
+      <c r="E528" t="n">
+        <v>391.2133333333333</v>
+      </c>
+      <c r="F528" t="n">
+        <v>400.4809090909091</v>
+      </c>
+      <c r="G528" t="n">
+        <v>389.3911111111111</v>
+      </c>
+      <c r="H528" t="n">
+        <v>385.8011111111111</v>
+      </c>
+      <c r="I528" t="n">
+        <v>389.9023076923077</v>
+      </c>
+      <c r="J528" t="n">
+        <v>394.8433333333333</v>
+      </c>
+      <c r="K528" t="n">
+        <v>401.4133333333333</v>
+      </c>
+      <c r="L528" t="n">
+        <v>393.2355555555556</v>
+      </c>
+      <c r="M528" t="n">
+        <v>401.9723076923077</v>
+      </c>
+      <c r="N528" t="n">
+        <v>396.6309090909091</v>
+      </c>
+      <c r="O528" t="n">
+        <v>392.14</v>
+      </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>435.01</v>
+      </c>
+      <c r="C529" t="n">
+        <v>384.7666666666667</v>
+      </c>
+      <c r="D529" t="n">
+        <v>397.6866666666667</v>
+      </c>
+      <c r="E529" t="n">
+        <v>394.3133333333333</v>
+      </c>
+      <c r="F529" t="n">
+        <v>402.2981818181818</v>
+      </c>
+      <c r="G529" t="n">
+        <v>402.6811111111112</v>
+      </c>
+      <c r="H529" t="n">
+        <v>391.1311111111111</v>
+      </c>
+      <c r="I529" t="n">
+        <v>393.5938461538461</v>
+      </c>
+      <c r="J529" t="n">
+        <v>394.5333333333333</v>
+      </c>
+      <c r="K529" t="n">
+        <v>395.1933333333333</v>
+      </c>
+      <c r="L529" t="n">
+        <v>393.7555555555555</v>
+      </c>
+      <c r="M529" t="n">
+        <v>392.3638461538461</v>
+      </c>
+      <c r="N529" t="n">
+        <v>386.2081818181818</v>
+      </c>
+      <c r="O529" t="n">
+        <v>383.28</v>
+      </c>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26091,7 +26307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31429,6 +31645,46 @@
       </c>
       <c r="B533" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -31602,28 +31858,28 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04066410271285419</v>
+        <v>-0.006441513096520621</v>
       </c>
       <c r="J2" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K2" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002641345377242255</v>
+        <v>6.602083991835705e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>15.1730787679964</v>
+        <v>15.2521156049821</v>
       </c>
       <c r="N2" t="n">
-        <v>364.0200396545721</v>
+        <v>367.7978414955286</v>
       </c>
       <c r="O2" t="n">
-        <v>19.0793092027613</v>
+        <v>19.17805624914914</v>
       </c>
       <c r="P2" t="n">
-        <v>391.6275655414881</v>
+        <v>391.2816370677987</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31680,28 +31936,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6064623939063141</v>
+        <v>0.6363326263673202</v>
       </c>
       <c r="J3" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K3" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05064198031398726</v>
+        <v>0.05597304008902126</v>
       </c>
       <c r="M3" t="n">
-        <v>14.96231697028211</v>
+        <v>14.9942642385578</v>
       </c>
       <c r="N3" t="n">
-        <v>394.9604086527628</v>
+        <v>394.3396830954627</v>
       </c>
       <c r="O3" t="n">
-        <v>19.87361086095737</v>
+        <v>19.85798789141193</v>
       </c>
       <c r="P3" t="n">
-        <v>350.7785433980644</v>
+        <v>350.4798715663491</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31758,28 +32014,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7714133864655115</v>
+        <v>0.7910264021431189</v>
       </c>
       <c r="J4" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08673020683457577</v>
+        <v>0.09134245879334391</v>
       </c>
       <c r="M4" t="n">
-        <v>15.08852143459606</v>
+        <v>15.12568426608082</v>
       </c>
       <c r="N4" t="n">
-        <v>368.1096808598048</v>
+        <v>368.5068727753012</v>
       </c>
       <c r="O4" t="n">
-        <v>19.18618463529956</v>
+        <v>19.19653283213667</v>
       </c>
       <c r="P4" t="n">
-        <v>354.801407505323</v>
+        <v>354.6089081655191</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31836,28 +32092,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8910954114368556</v>
+        <v>0.9043413463749006</v>
       </c>
       <c r="J5" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K5" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1436014756939953</v>
+        <v>0.1484151938926951</v>
       </c>
       <c r="M5" t="n">
-        <v>13.01552638171296</v>
+        <v>13.00309193408714</v>
       </c>
       <c r="N5" t="n">
-        <v>280.3767512902132</v>
+        <v>279.786554917769</v>
       </c>
       <c r="O5" t="n">
-        <v>16.74445434435572</v>
+        <v>16.72682142302503</v>
       </c>
       <c r="P5" t="n">
-        <v>349.1859295371258</v>
+        <v>349.0553033142428</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31914,28 +32170,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8228328823975538</v>
+        <v>0.8418108520820279</v>
       </c>
       <c r="J6" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.135226189186373</v>
+        <v>0.1412423482841327</v>
       </c>
       <c r="M6" t="n">
-        <v>12.32485621591436</v>
+        <v>12.33737108644583</v>
       </c>
       <c r="N6" t="n">
-        <v>252.6018347872846</v>
+        <v>253.096052434699</v>
       </c>
       <c r="O6" t="n">
-        <v>15.89345257605422</v>
+        <v>15.90899281647644</v>
       </c>
       <c r="P6" t="n">
-        <v>355.3457918747071</v>
+        <v>355.1558070170703</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31992,28 +32248,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7523986170346887</v>
+        <v>0.7659128620789807</v>
       </c>
       <c r="J7" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K7" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08994636378943177</v>
+        <v>0.09346261629937369</v>
       </c>
       <c r="M7" t="n">
-        <v>14.23725072450003</v>
+        <v>14.25637953293287</v>
       </c>
       <c r="N7" t="n">
-        <v>318.3377885894088</v>
+        <v>318.3144323620712</v>
       </c>
       <c r="O7" t="n">
-        <v>17.84202310808415</v>
+        <v>17.84136856751945</v>
       </c>
       <c r="P7" t="n">
-        <v>355.8216632434051</v>
+        <v>355.6804011753123</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32070,28 +32326,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5825818332015242</v>
+        <v>0.596680146051611</v>
       </c>
       <c r="J8" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K8" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06233971505643376</v>
+        <v>0.06579962811444029</v>
       </c>
       <c r="M8" t="n">
-        <v>13.46976694445187</v>
+        <v>13.46382419510574</v>
       </c>
       <c r="N8" t="n">
-        <v>292.7195556524833</v>
+        <v>291.7919637403241</v>
       </c>
       <c r="O8" t="n">
-        <v>17.10904894061862</v>
+        <v>17.08191920541495</v>
       </c>
       <c r="P8" t="n">
-        <v>355.8901890971222</v>
+        <v>355.7474449802111</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32148,28 +32404,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8395236338640767</v>
+        <v>0.862093052575821</v>
       </c>
       <c r="J9" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K9" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1789889948351079</v>
+        <v>0.1873083447514743</v>
       </c>
       <c r="M9" t="n">
-        <v>10.37971100912639</v>
+        <v>10.42064775342354</v>
       </c>
       <c r="N9" t="n">
-        <v>188.3319430782827</v>
+        <v>189.1147158915902</v>
       </c>
       <c r="O9" t="n">
-        <v>13.72340858089865</v>
+        <v>13.75189862861089</v>
       </c>
       <c r="P9" t="n">
-        <v>349.1267368484524</v>
+        <v>348.9016197813253</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32226,28 +32482,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6689375928538078</v>
+        <v>0.6931503193205647</v>
       </c>
       <c r="J10" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K10" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1301392211574443</v>
+        <v>0.1382622680392891</v>
       </c>
       <c r="M10" t="n">
-        <v>10.24197465348607</v>
+        <v>10.2987651996615</v>
       </c>
       <c r="N10" t="n">
-        <v>170.0460231751066</v>
+        <v>171.4242118324578</v>
       </c>
       <c r="O10" t="n">
-        <v>13.04016959916958</v>
+        <v>13.09290692827448</v>
       </c>
       <c r="P10" t="n">
-        <v>353.6866506775017</v>
+        <v>353.4396361798241</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32304,28 +32560,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5986234603532923</v>
+        <v>0.6261852901801743</v>
       </c>
       <c r="J11" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K11" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09948812222991243</v>
+        <v>0.1075829390558989</v>
       </c>
       <c r="M11" t="n">
-        <v>11.02188672805218</v>
+        <v>11.08720405564197</v>
       </c>
       <c r="N11" t="n">
-        <v>188.1457467166994</v>
+        <v>189.9696179477308</v>
       </c>
       <c r="O11" t="n">
-        <v>13.7166230070196</v>
+        <v>13.78294663516226</v>
       </c>
       <c r="P11" t="n">
-        <v>357.1324656942207</v>
+        <v>356.8557022061025</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32382,28 +32638,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7713597853231258</v>
+        <v>0.8015990904509559</v>
       </c>
       <c r="J12" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K12" t="n">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1057095081480131</v>
+        <v>0.1136300349339514</v>
       </c>
       <c r="M12" t="n">
-        <v>12.98018203549337</v>
+        <v>13.02373637026739</v>
       </c>
       <c r="N12" t="n">
-        <v>288.7531340248369</v>
+        <v>289.369450443573</v>
       </c>
       <c r="O12" t="n">
-        <v>16.99273768481221</v>
+        <v>17.01086271896793</v>
       </c>
       <c r="P12" t="n">
-        <v>351.2235687196539</v>
+        <v>350.9133907007335</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32460,28 +32716,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4712721971047911</v>
+        <v>0.5055267112570005</v>
       </c>
       <c r="J13" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K13" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02779093708551883</v>
+        <v>0.03200202754647419</v>
       </c>
       <c r="M13" t="n">
-        <v>14.72573929021911</v>
+        <v>14.77269126952705</v>
       </c>
       <c r="N13" t="n">
-        <v>447.5804083573187</v>
+        <v>448.161983049898</v>
       </c>
       <c r="O13" t="n">
-        <v>21.15609624569993</v>
+        <v>21.16983663257461</v>
       </c>
       <c r="P13" t="n">
-        <v>355.8689529905255</v>
+        <v>355.519016632081</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32538,28 +32794,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3400636066992704</v>
+        <v>0.3720159262337291</v>
       </c>
       <c r="J14" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K14" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01845446724635369</v>
+        <v>0.02208044682310495</v>
       </c>
       <c r="M14" t="n">
-        <v>14.50634915002439</v>
+        <v>14.53862813364221</v>
       </c>
       <c r="N14" t="n">
-        <v>350.134854706731</v>
+        <v>351.1712567569302</v>
       </c>
       <c r="O14" t="n">
-        <v>18.71189073040806</v>
+        <v>18.73956394255027</v>
       </c>
       <c r="P14" t="n">
-        <v>356.2436972859339</v>
+        <v>355.9152828988525</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32616,28 +32872,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1753725770651102</v>
+        <v>0.1989304812044818</v>
       </c>
       <c r="J15" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K15" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005257437650988961</v>
+        <v>0.0067996198826068</v>
       </c>
       <c r="M15" t="n">
-        <v>13.52769996262004</v>
+        <v>13.55199127896836</v>
       </c>
       <c r="N15" t="n">
-        <v>338.6117298192813</v>
+        <v>338.6601258184195</v>
       </c>
       <c r="O15" t="n">
-        <v>18.40140564791944</v>
+        <v>18.4027206091496</v>
       </c>
       <c r="P15" t="n">
-        <v>360.0141990164744</v>
+        <v>359.7779612233476</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32675,7 +32931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P525"/>
+  <dimension ref="A1:P529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70265,6 +70521,334 @@
         </is>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-40.7894682541725,172.21022540136823</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-40.78891444412727,172.21081731525823</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-40.78828450226255,172.21115603782334</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-40.78771334803283,172.21169030651012</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-40.78705640597648,172.21190445307906</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>-40.7864045581448,172.2121023577243</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>-40.78575985610096,172.212378841322</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>-40.78508810502247,172.21254347459717</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>-40.784438674283415,172.21281133383062</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>-40.78378026788386,172.21301242864473</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>-40.78312216465082,172.2131901536349</t>
+        </is>
+      </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>-40.78247393820493,172.21345455490263</t>
+        </is>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>-40.78180900708896,172.21364408365943</t>
+        </is>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>-40.781152480377315,172.2138821030769</t>
+        </is>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-40.7895535144987,172.21050897397922</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>-40.788921899773,172.21084211252924</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>-40.788374929996216,172.21145679904296</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-40.78771258591437,172.211687771716</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>-40.78707151866818,172.21196128160219</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>-40.78646585718085,172.21237578154344</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>-40.785800199274895,172.2125653657818</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>-40.78512088988004,172.2126950525398</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>-40.78447245074863,172.2129674961907</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>-40.78380791592254,172.21314856261074</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>-40.78314511255692,172.2133164425086</t>
+        </is>
+      </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>-40.78249044723952,172.21354973209665</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>-40.78183678347913,172.21380421873423</t>
+        </is>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>-40.78119276172289,172.21411433147196</t>
+        </is>
+      </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-40.789455463407066,172.21018286002945</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-40.78895168916695,172.2109411914593</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-40.78823526206289,172.21099226712943</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-40.78763852761787,172.21144145613022</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-40.78699060540393,172.2116570235399</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-40.78638869810366,172.21203161469927</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-40.785745474167754,172.2123123476305</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>-40.78508013209145,172.21250661260413</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>-40.784412713105674,172.2126913054985</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>-40.783748271299956,172.21285488435026</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>-40.78311634911155,172.21315814919762</t>
+        </is>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>-40.782438618258986,172.21325093150597</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>-40.78178532246773,172.2135075393642</t>
+        </is>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>-40.78113031541865,172.21375431981406</t>
+        </is>
+      </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-40.789394856174944,172.20998128484322</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-40.78892753292405,172.21086084824887</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-40.78825090231281,172.21104428578894</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-40.78762825550871,172.21140729159612</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>-40.78698519907781,172.21163669427102</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>-40.78635482865881,172.21188054226954</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>-40.78573233315663,172.21225159142028</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>-40.78507103072224,172.2124645334751</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>-40.78441347739662,172.21269483909478</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>-40.78376273489853,172.21292609984798</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>-40.783115260005964,172.21315215557016</t>
+        </is>
+      </c>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>-40.782457874618835,172.2133619462683</t>
+        </is>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>-40.781806210490124,172.21362796092401</t>
+        </is>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>-40.781148071445585,172.21385668506107</t>
+        </is>
+      </c>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P529"/>
+  <dimension ref="A1:P535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26296,6 +26296,330 @@
         </is>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>439.07</v>
+      </c>
+      <c r="C530" t="n">
+        <v>390.44</v>
+      </c>
+      <c r="D530" t="n">
+        <v>420.03</v>
+      </c>
+      <c r="E530" t="n">
+        <v>400.15</v>
+      </c>
+      <c r="F530" t="n">
+        <v>408.3772727272727</v>
+      </c>
+      <c r="G530" t="n">
+        <v>407.3366666666667</v>
+      </c>
+      <c r="H530" t="n">
+        <v>414.7666666666667</v>
+      </c>
+      <c r="I530" t="n">
+        <v>405.4453846153846</v>
+      </c>
+      <c r="J530" t="n">
+        <v>399.55</v>
+      </c>
+      <c r="K530" t="n">
+        <v>410.82</v>
+      </c>
+      <c r="L530" t="n">
+        <v>400.8033333333333</v>
+      </c>
+      <c r="M530" t="n">
+        <v>398.8853846153846</v>
+      </c>
+      <c r="N530" t="n">
+        <v>394.1872727272727</v>
+      </c>
+      <c r="O530" t="n">
+        <v>402.7</v>
+      </c>
+      <c r="P530" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>426.62</v>
+      </c>
+      <c r="C531" t="n">
+        <v>396.1633333333333</v>
+      </c>
+      <c r="D531" t="n">
+        <v>367.5233333333333</v>
+      </c>
+      <c r="E531" t="n">
+        <v>369.3366666666667</v>
+      </c>
+      <c r="F531" t="n">
+        <v>369.8845454545455</v>
+      </c>
+      <c r="G531" t="n">
+        <v>373.6822222222222</v>
+      </c>
+      <c r="H531" t="n">
+        <v>376.3122222222222</v>
+      </c>
+      <c r="I531" t="n">
+        <v>367.9023076923077</v>
+      </c>
+      <c r="J531" t="n">
+        <v>362.4566666666667</v>
+      </c>
+      <c r="K531" t="n">
+        <v>372.6366666666667</v>
+      </c>
+      <c r="L531" t="n">
+        <v>374.3411111111111</v>
+      </c>
+      <c r="M531" t="n">
+        <v>364.5623076923077</v>
+      </c>
+      <c r="N531" t="n">
+        <v>371.7445454545455</v>
+      </c>
+      <c r="O531" t="n">
+        <v>359.65</v>
+      </c>
+      <c r="P531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>415.37</v>
+      </c>
+      <c r="C532" t="n">
+        <v>382.4666666666667</v>
+      </c>
+      <c r="D532" t="n">
+        <v>360.8866666666667</v>
+      </c>
+      <c r="E532" t="n">
+        <v>368.5933333333333</v>
+      </c>
+      <c r="F532" t="n">
+        <v>367.050909090909</v>
+      </c>
+      <c r="G532" t="n">
+        <v>371.1977777777778</v>
+      </c>
+      <c r="H532" t="n">
+        <v>384.0577777777777</v>
+      </c>
+      <c r="I532" t="n">
+        <v>373.5846153846153</v>
+      </c>
+      <c r="J532" t="n">
+        <v>368.0633333333333</v>
+      </c>
+      <c r="K532" t="n">
+        <v>378.9633333333333</v>
+      </c>
+      <c r="L532" t="n">
+        <v>378.9888888888889</v>
+      </c>
+      <c r="M532" t="n">
+        <v>375.5646153846154</v>
+      </c>
+      <c r="N532" t="n">
+        <v>370.210909090909</v>
+      </c>
+      <c r="O532" t="n">
+        <v>358.78</v>
+      </c>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>403.31</v>
+      </c>
+      <c r="C533" t="n">
+        <v>350.9233333333333</v>
+      </c>
+      <c r="D533" t="n">
+        <v>386.3133333333333</v>
+      </c>
+      <c r="E533" t="n">
+        <v>359.6266666666667</v>
+      </c>
+      <c r="F533" t="n">
+        <v>370.5172727272728</v>
+      </c>
+      <c r="G533" t="n">
+        <v>384.6422222222222</v>
+      </c>
+      <c r="H533" t="n">
+        <v>365.4922222222222</v>
+      </c>
+      <c r="I533" t="n">
+        <v>380.0530769230769</v>
+      </c>
+      <c r="J533" t="n">
+        <v>384.9866666666667</v>
+      </c>
+      <c r="K533" t="n">
+        <v>387.5866666666667</v>
+      </c>
+      <c r="L533" t="n">
+        <v>378.5011111111111</v>
+      </c>
+      <c r="M533" t="n">
+        <v>384.2930769230769</v>
+      </c>
+      <c r="N533" t="n">
+        <v>356.3572727272727</v>
+      </c>
+      <c r="O533" t="n">
+        <v>353.73</v>
+      </c>
+      <c r="P533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>408.65</v>
+      </c>
+      <c r="C534" t="n">
+        <v>369</v>
+      </c>
+      <c r="D534" t="n">
+        <v>396.09</v>
+      </c>
+      <c r="E534" t="n">
+        <v>373.77</v>
+      </c>
+      <c r="F534" t="n">
+        <v>376.9118181818182</v>
+      </c>
+      <c r="G534" t="n">
+        <v>389.98</v>
+      </c>
+      <c r="H534" t="n">
+        <v>380.45</v>
+      </c>
+      <c r="I534" t="n">
+        <v>379.5038461538462</v>
+      </c>
+      <c r="J534" t="n">
+        <v>383.02</v>
+      </c>
+      <c r="K534" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="L534" t="n">
+        <v>376.87</v>
+      </c>
+      <c r="M534" t="n">
+        <v>384.5438461538461</v>
+      </c>
+      <c r="N534" t="n">
+        <v>375.1418181818182</v>
+      </c>
+      <c r="O534" t="n">
+        <v>362.74</v>
+      </c>
+      <c r="P534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>419.13</v>
+      </c>
+      <c r="C535" t="n">
+        <v>398.9</v>
+      </c>
+      <c r="D535" t="n">
+        <v>409.16</v>
+      </c>
+      <c r="E535" t="n">
+        <v>388.06</v>
+      </c>
+      <c r="F535" t="n">
+        <v>398.6090909090909</v>
+      </c>
+      <c r="G535" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="H535" t="n">
+        <v>404.13</v>
+      </c>
+      <c r="I535" t="n">
+        <v>397.6046153846154</v>
+      </c>
+      <c r="J535" t="n">
+        <v>394.33</v>
+      </c>
+      <c r="K535" t="n">
+        <v>398.69</v>
+      </c>
+      <c r="L535" t="n">
+        <v>396.14</v>
+      </c>
+      <c r="M535" t="n">
+        <v>396.8246153846154</v>
+      </c>
+      <c r="N535" t="n">
+        <v>396.759090909091</v>
+      </c>
+      <c r="O535" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="P535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26307,7 +26631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31685,6 +32009,66 @@
       </c>
       <c r="B537" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -31858,28 +32242,28 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006441513096520621</v>
+        <v>0.05504325143693987</v>
       </c>
       <c r="J2" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L2" t="n">
-        <v>6.602083991835705e-06</v>
+        <v>0.0004773331517595736</v>
       </c>
       <c r="M2" t="n">
-        <v>15.2521156049821</v>
+        <v>15.41596906411765</v>
       </c>
       <c r="N2" t="n">
-        <v>367.7978414955286</v>
+        <v>374.573873623582</v>
       </c>
       <c r="O2" t="n">
-        <v>19.17805624914914</v>
+        <v>19.3539110678845</v>
       </c>
       <c r="P2" t="n">
-        <v>391.2816370677987</v>
+        <v>390.6578026105519</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31936,28 +32320,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6363326263673202</v>
+        <v>0.671102482106015</v>
       </c>
       <c r="J3" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K3" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05597304008902126</v>
+        <v>0.06236089195678673</v>
       </c>
       <c r="M3" t="n">
-        <v>14.9942642385578</v>
+        <v>15.06269429384377</v>
       </c>
       <c r="N3" t="n">
-        <v>394.3396830954627</v>
+        <v>395.5104720143772</v>
       </c>
       <c r="O3" t="n">
-        <v>19.85798789141193</v>
+        <v>19.88744508513794</v>
       </c>
       <c r="P3" t="n">
-        <v>350.4798715663491</v>
+        <v>350.1305263562065</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32014,28 +32398,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7910264021431189</v>
+        <v>0.8257155128289049</v>
       </c>
       <c r="J4" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K4" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09134245879334391</v>
+        <v>0.09876796453244063</v>
       </c>
       <c r="M4" t="n">
-        <v>15.12568426608082</v>
+        <v>15.2181394893151</v>
       </c>
       <c r="N4" t="n">
-        <v>368.5068727753012</v>
+        <v>372.4193609314229</v>
       </c>
       <c r="O4" t="n">
-        <v>19.19653283213667</v>
+        <v>19.29816988554674</v>
       </c>
       <c r="P4" t="n">
-        <v>354.6089081655191</v>
+        <v>354.2670413156288</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32092,28 +32476,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9043413463749006</v>
+        <v>0.9134903226948127</v>
       </c>
       <c r="J5" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K5" t="n">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1484151938926951</v>
+        <v>0.1527694170344688</v>
       </c>
       <c r="M5" t="n">
-        <v>13.00309193408714</v>
+        <v>12.97150354989886</v>
       </c>
       <c r="N5" t="n">
-        <v>279.786554917769</v>
+        <v>278.7019984190608</v>
       </c>
       <c r="O5" t="n">
-        <v>16.72682142302503</v>
+        <v>16.69437026123061</v>
       </c>
       <c r="P5" t="n">
-        <v>349.0553033142428</v>
+        <v>348.9648720682578</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32170,28 +32554,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8418108520820279</v>
+        <v>0.8530550202153132</v>
       </c>
       <c r="J6" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K6" t="n">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1412423482841327</v>
+        <v>0.1455787018691863</v>
       </c>
       <c r="M6" t="n">
-        <v>12.33737108644583</v>
+        <v>12.34635504240467</v>
       </c>
       <c r="N6" t="n">
-        <v>253.096052434699</v>
+        <v>253.3653452558767</v>
       </c>
       <c r="O6" t="n">
-        <v>15.90899281647644</v>
+        <v>15.91745410723325</v>
       </c>
       <c r="P6" t="n">
-        <v>355.1558070170703</v>
+        <v>355.0428253871053</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32248,28 +32632,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7659128620789807</v>
+        <v>0.7957927619371536</v>
       </c>
       <c r="J7" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K7" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09346261629937369</v>
+        <v>0.1009411091919115</v>
       </c>
       <c r="M7" t="n">
-        <v>14.25637953293287</v>
+        <v>14.26079213933265</v>
       </c>
       <c r="N7" t="n">
-        <v>318.3144323620712</v>
+        <v>318.5234876736758</v>
       </c>
       <c r="O7" t="n">
-        <v>17.84136856751945</v>
+        <v>17.84722632998405</v>
       </c>
       <c r="P7" t="n">
-        <v>355.6804011753123</v>
+        <v>355.3671457228003</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32326,28 +32710,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.596680146051611</v>
+        <v>0.6332020689979563</v>
       </c>
       <c r="J8" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K8" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06579962811444029</v>
+        <v>0.07339893521598329</v>
       </c>
       <c r="M8" t="n">
-        <v>13.46382419510574</v>
+        <v>13.52744323832221</v>
       </c>
       <c r="N8" t="n">
-        <v>291.7919637403241</v>
+        <v>295.0226273132622</v>
       </c>
       <c r="O8" t="n">
-        <v>17.08191920541495</v>
+        <v>17.17622273124281</v>
       </c>
       <c r="P8" t="n">
-        <v>355.7474449802111</v>
+        <v>355.3763541521303</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32404,28 +32788,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.862093052575821</v>
+        <v>0.8899792132874342</v>
       </c>
       <c r="J9" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K9" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1873083447514743</v>
+        <v>0.1972014734183124</v>
       </c>
       <c r="M9" t="n">
-        <v>10.42064775342354</v>
+        <v>10.46966631491752</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1147158915902</v>
+        <v>190.9405193463296</v>
       </c>
       <c r="O9" t="n">
-        <v>13.75189862861089</v>
+        <v>13.81812285899679</v>
       </c>
       <c r="P9" t="n">
-        <v>348.9016197813253</v>
+        <v>348.6222033952475</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32482,28 +32866,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6931503193205647</v>
+        <v>0.718015745705826</v>
       </c>
       <c r="J10" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K10" t="n">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1382622680392891</v>
+        <v>0.1470020774144212</v>
       </c>
       <c r="M10" t="n">
-        <v>10.2987651996615</v>
+        <v>10.37118740960661</v>
       </c>
       <c r="N10" t="n">
-        <v>171.4242118324578</v>
+        <v>172.9526757262445</v>
       </c>
       <c r="O10" t="n">
-        <v>13.09290692827448</v>
+        <v>13.15114731596618</v>
       </c>
       <c r="P10" t="n">
-        <v>353.4396361798241</v>
+        <v>353.184789369834</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32560,28 +32944,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6261852901801743</v>
+        <v>0.6636730282651733</v>
       </c>
       <c r="J11" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K11" t="n">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1075829390558989</v>
+        <v>0.1186477337886702</v>
       </c>
       <c r="M11" t="n">
-        <v>11.08720405564197</v>
+        <v>11.17248742406299</v>
       </c>
       <c r="N11" t="n">
-        <v>189.9696179477308</v>
+        <v>192.9881171439321</v>
       </c>
       <c r="O11" t="n">
-        <v>13.78294663516226</v>
+        <v>13.89201630951865</v>
       </c>
       <c r="P11" t="n">
-        <v>356.8557022061025</v>
+        <v>356.4775790013525</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32638,28 +33022,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8015990904509559</v>
+        <v>0.8321790523148275</v>
       </c>
       <c r="J12" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K12" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1136300349339514</v>
+        <v>0.1225476058673598</v>
       </c>
       <c r="M12" t="n">
-        <v>13.02373637026739</v>
+        <v>13.01262119860973</v>
       </c>
       <c r="N12" t="n">
-        <v>289.369450443573</v>
+        <v>288.8760279279162</v>
       </c>
       <c r="O12" t="n">
-        <v>17.01086271896793</v>
+        <v>16.99635337147108</v>
       </c>
       <c r="P12" t="n">
-        <v>350.9133907007335</v>
+        <v>350.5981565209466</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32716,28 +33100,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5055267112570005</v>
+        <v>0.5429032453729491</v>
       </c>
       <c r="J13" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K13" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03200202754647419</v>
+        <v>0.03714545294460347</v>
       </c>
       <c r="M13" t="n">
-        <v>14.77269126952705</v>
+        <v>14.79103304065704</v>
       </c>
       <c r="N13" t="n">
-        <v>448.161983049898</v>
+        <v>447.0035725764042</v>
       </c>
       <c r="O13" t="n">
-        <v>21.16983663257461</v>
+        <v>21.14245900022994</v>
       </c>
       <c r="P13" t="n">
-        <v>355.519016632081</v>
+        <v>355.1352488379107</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32794,28 +33178,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3720159262337291</v>
+        <v>0.4000982757499151</v>
       </c>
       <c r="J14" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K14" t="n">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02208044682310495</v>
+        <v>0.02569985018215992</v>
       </c>
       <c r="M14" t="n">
-        <v>14.53862813364221</v>
+        <v>14.52891159524788</v>
       </c>
       <c r="N14" t="n">
-        <v>351.1712567569302</v>
+        <v>350.9067819206364</v>
       </c>
       <c r="O14" t="n">
-        <v>18.73956394255027</v>
+        <v>18.73250602350461</v>
       </c>
       <c r="P14" t="n">
-        <v>355.9152828988525</v>
+        <v>355.6251621505751</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32872,28 +33256,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1989304812044818</v>
+        <v>0.2137614558006423</v>
       </c>
       <c r="J15" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K15" t="n">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0067996198826068</v>
+        <v>0.007907109987092764</v>
       </c>
       <c r="M15" t="n">
-        <v>13.55199127896836</v>
+        <v>13.56790721409008</v>
       </c>
       <c r="N15" t="n">
-        <v>338.6601258184195</v>
+        <v>339.1972783037846</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4027206091496</v>
+        <v>18.41730920367534</v>
       </c>
       <c r="P15" t="n">
-        <v>359.7779612233476</v>
+        <v>359.6285593496848</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32931,7 +33315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P529"/>
+  <dimension ref="A1:P535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70849,6 +71233,498 @@
         </is>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-40.78938140258123,172.20993653939027</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-40.78890873365135,172.21079832238925</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-40.78817686496366,172.21079804231056</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-40.78760891519849,172.21134296678719</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-40.78696711395805,172.21156868938232</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>-40.78634296397106,172.21182762085508</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-40.78567405977181,172.21198217205557</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>-40.785041811032734,172.21232944017214</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>-40.78440110901902,172.2126376556386</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>-40.78372639754321,172.21274718337347</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>-40.783100498871434,172.21307092144662</t>
+        </is>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>-40.78244480478663,172.21328659735752</t>
+        </is>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>-40.78179021973182,172.21353577251492</t>
+        </is>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>-40.78110915236106,172.21363231345268</t>
+        </is>
+      </c>
+      <c r="P530" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-40.789422658004966,172.21007375149</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-40.78888976866354,172.2107352455154</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-40.78835085135479,172.21137671352693</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>-40.78771101749649,172.21168255518327</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>-40.787081628037356,172.21199929611564</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>-40.78642873181145,172.21221018375067</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>-40.78576886875969,172.2124205107169</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>-40.78513437206663,172.21275738656865</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>-40.78449256038374,172.21306047176495</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>-40.783815186392296,172.213184361245</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>-40.78315592206449,172.21337593060542</t>
+        </is>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>-40.782513591205145,172.21368316155647</t>
+        </is>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>-40.781835196627156,172.21379507025551</t>
+        </is>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>-40.78119542708905,172.21412969783862</t>
+        </is>
+      </c>
+      <c r="P531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-40.789459936863075,172.21019773847507</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-40.78893515424124,172.21088619658047</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-40.78837284244645,172.21144985584684</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-40.78771348057516,172.21169074734388</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-40.787090057911136,172.2120309952253</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-40.78643506333041,172.21223842541724</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-40.785749772315214,172.2123322197421</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>-40.78512036265361,172.21269261494572</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>-40.78447873758576,172.21299656292518</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>-40.783800474918586,172.21311192435792</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>-40.78314618769122,172.21332235930015</t>
+        </is>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>-40.78249154177543,172.2135560422868</t>
+        </is>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>-40.78183827012737,172.21381278952526</t>
+        </is>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>-40.78119717059816,172.21413974952273</t>
+        </is>
+      </c>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-40.78949989965216,172.2103306526791</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-40.7890396761832,172.2112338366835</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-40.788288589034124,172.21116963028766</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-40.78774319210646,172.21178956762554</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>-40.787079745715936,172.21199221797102</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>-40.78640080055637,172.21208559714375</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>-40.78579554504611,172.21254384712694</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>-40.785104414978086,172.21261888212757</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>-40.78443701421815,172.21280365870174</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>-40.78378042290555,172.21301319194112</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>-40.78314720930125,172.21332798153296</t>
+        </is>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>-40.78247404920065,172.2134551948089</t>
+        </is>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>-40.78186603353156,172.21397285122015</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>-40.78120729094983,172.2141980955159</t>
+        </is>
+      </c>
+      <c r="P533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-40.78948220470458,172.21027180010117</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-40.788979777494816,172.2110346130169</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-40.7882561930418,172.21106188250212</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-40.787696327374064,172.21163369612154</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-40.7870607223458,172.21192068398597</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-40.78638719732981,172.2120249205744</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-40.78575866719593,172.21237334450905</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>-40.785105769081504,172.21262514270796</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>-40.78444186292221,172.21282607615845</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>-40.783780856966246,172.213015329171</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>-40.783150625525955,172.2133467820759</t>
+        </is>
+      </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>-40.78247354663662,172.21345229745552</t>
+        </is>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>-40.781828388277084,172.21375581898056</t>
+        </is>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>-40.78118923461867,172.21409399703384</t>
+        </is>
+      </c>
+      <c r="P534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-40.78944747745497,172.21015629925375</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-40.78888070036084,172.2107050847167</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-40.788212884094214,172.2109178393446</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-40.78764897644122,172.2114762084522</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-40.786996173997245,172.21167796299545</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-40.78635579991976,172.21188487450073</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-40.785700284516025,172.2121034183095</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>-40.785061142282586,172.21241881550992</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>-40.78441397870569,172.21269715683</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>-40.78375460397416,172.21288606497964</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>-40.78311026594097,172.21312467197322</t>
+        </is>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>-40.7824489347849,172.21331040718343</t>
+        </is>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>-40.781785065579804,172.2135060583843</t>
+        </is>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>-40.78113360209411,172.21377326777883</t>
+        </is>
+      </c>
+      <c r="P535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P535"/>
+  <dimension ref="A1:P538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26620,6 +26620,162 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:03+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>407.97</v>
+      </c>
+      <c r="C536" t="n">
+        <v>396.2933333333333</v>
+      </c>
+      <c r="D536" t="n">
+        <v>399.2633333333333</v>
+      </c>
+      <c r="E536" t="n">
+        <v>381.7266666666667</v>
+      </c>
+      <c r="F536" t="n">
+        <v>393.129090909091</v>
+      </c>
+      <c r="G536" t="n">
+        <v>397.9922222222222</v>
+      </c>
+      <c r="H536" t="n">
+        <v>405.6622222222222</v>
+      </c>
+      <c r="I536" t="n">
+        <v>397.0553846153846</v>
+      </c>
+      <c r="J536" t="n">
+        <v>391.7866666666667</v>
+      </c>
+      <c r="K536" t="n">
+        <v>402.1866666666667</v>
+      </c>
+      <c r="L536" t="n">
+        <v>392.2911111111111</v>
+      </c>
+      <c r="M536" t="n">
+        <v>395.7453846153846</v>
+      </c>
+      <c r="N536" t="n">
+        <v>400.1490909090909</v>
+      </c>
+      <c r="O536" t="n">
+        <v>387.33</v>
+      </c>
+      <c r="P536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:08+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>390.34</v>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="n">
+        <v>374.7833333333333</v>
+      </c>
+      <c r="E537" t="n">
+        <v>373.3466666666667</v>
+      </c>
+      <c r="F537" t="n">
+        <v>365.1254545454545</v>
+      </c>
+      <c r="G537" t="n">
+        <v>361.4688888888889</v>
+      </c>
+      <c r="H537" t="n">
+        <v>353.4788888888889</v>
+      </c>
+      <c r="I537" t="n">
+        <v>359.6430769230769</v>
+      </c>
+      <c r="J537" t="n">
+        <v>368.6866666666667</v>
+      </c>
+      <c r="K537" t="n">
+        <v>375.2966666666667</v>
+      </c>
+      <c r="L537" t="n">
+        <v>367.5544444444445</v>
+      </c>
+      <c r="M537" t="n">
+        <v>375.3830769230769</v>
+      </c>
+      <c r="N537" t="n">
+        <v>358.6154545454545</v>
+      </c>
+      <c r="O537" t="n">
+        <v>347.83</v>
+      </c>
+      <c r="P537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>386.69</v>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="n">
+        <v>382.51</v>
+      </c>
+      <c r="E538" t="n">
+        <v>369.31</v>
+      </c>
+      <c r="F538" t="n">
+        <v>374.2154545454546</v>
+      </c>
+      <c r="G538" t="n">
+        <v>374.8533333333333</v>
+      </c>
+      <c r="H538" t="n">
+        <v>366.4633333333333</v>
+      </c>
+      <c r="I538" t="n">
+        <v>374.5853846153847</v>
+      </c>
+      <c r="J538" t="n">
+        <v>379.6</v>
+      </c>
+      <c r="K538" t="n">
+        <v>380.55</v>
+      </c>
+      <c r="L538" t="n">
+        <v>382.7866666666667</v>
+      </c>
+      <c r="M538" t="n">
+        <v>369.0953846153847</v>
+      </c>
+      <c r="N538" t="n">
+        <v>331.8154545454545</v>
+      </c>
+      <c r="O538" t="inlineStr"/>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26631,7 +26787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B543"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32069,6 +32225,36 @@
       </c>
       <c r="B543" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -32242,28 +32428,28 @@
         <v>0.0438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05504325143693987</v>
+        <v>0.05823058258875857</v>
       </c>
       <c r="J2" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K2" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004773331517595736</v>
+        <v>0.0005391654905203547</v>
       </c>
       <c r="M2" t="n">
-        <v>15.41596906411765</v>
+        <v>15.36462713825559</v>
       </c>
       <c r="N2" t="n">
-        <v>374.573873623582</v>
+        <v>372.703671435961</v>
       </c>
       <c r="O2" t="n">
-        <v>19.3539110678845</v>
+        <v>19.30553473582022</v>
       </c>
       <c r="P2" t="n">
-        <v>390.6578026105519</v>
+        <v>390.625449256974</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32320,28 +32506,28 @@
         <v>0.0308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.671102482106015</v>
+        <v>0.6827088718582264</v>
       </c>
       <c r="J3" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K3" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06236089195678673</v>
+        <v>0.06435811763321631</v>
       </c>
       <c r="M3" t="n">
-        <v>15.06269429384377</v>
+        <v>15.09546319259659</v>
       </c>
       <c r="N3" t="n">
-        <v>395.5104720143772</v>
+        <v>396.4891369205902</v>
       </c>
       <c r="O3" t="n">
-        <v>19.88744508513794</v>
+        <v>19.91203497688245</v>
       </c>
       <c r="P3" t="n">
-        <v>350.1305263562065</v>
+        <v>350.0135731521148</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32398,28 +32584,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8257155128289049</v>
+        <v>0.8369368031123786</v>
       </c>
       <c r="J4" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K4" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09876796453244063</v>
+        <v>0.1019736307253846</v>
       </c>
       <c r="M4" t="n">
-        <v>15.2181394893151</v>
+        <v>15.18488805972107</v>
       </c>
       <c r="N4" t="n">
-        <v>372.4193609314229</v>
+        <v>371.2445082711217</v>
       </c>
       <c r="O4" t="n">
-        <v>19.29816988554674</v>
+        <v>19.26770635729956</v>
       </c>
       <c r="P4" t="n">
-        <v>354.2670413156288</v>
+        <v>354.1560897566968</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32476,28 +32662,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9134903226948127</v>
+        <v>0.915742259698441</v>
       </c>
       <c r="J5" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K5" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1527694170344688</v>
+        <v>0.1548140823526362</v>
       </c>
       <c r="M5" t="n">
-        <v>12.97150354989886</v>
+        <v>12.91368505578243</v>
       </c>
       <c r="N5" t="n">
-        <v>278.7019984190608</v>
+        <v>277.0508281297608</v>
       </c>
       <c r="O5" t="n">
-        <v>16.69437026123061</v>
+        <v>16.644843890219</v>
       </c>
       <c r="P5" t="n">
-        <v>348.9648720682578</v>
+        <v>348.9425812128037</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32554,28 +32740,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8530550202153132</v>
+        <v>0.8532736818217765</v>
       </c>
       <c r="J6" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K6" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1455787018691863</v>
+        <v>0.1466266323563866</v>
       </c>
       <c r="M6" t="n">
-        <v>12.34635504240467</v>
+        <v>12.33302171247794</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3653452558767</v>
+        <v>252.5706089862934</v>
       </c>
       <c r="O6" t="n">
-        <v>15.91745410723325</v>
+        <v>15.89247019774753</v>
       </c>
       <c r="P6" t="n">
-        <v>355.0428253871053</v>
+        <v>355.0407895169863</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32632,28 +32818,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7957927619371536</v>
+        <v>0.7980987864517178</v>
       </c>
       <c r="J7" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K7" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1009411091919115</v>
+        <v>0.1020529316483808</v>
       </c>
       <c r="M7" t="n">
-        <v>14.26079213933265</v>
+        <v>14.24942969976374</v>
       </c>
       <c r="N7" t="n">
-        <v>318.5234876736758</v>
+        <v>317.9270414914914</v>
       </c>
       <c r="O7" t="n">
-        <v>17.84722632998405</v>
+        <v>17.83050872778148</v>
       </c>
       <c r="P7" t="n">
-        <v>355.3671457228003</v>
+        <v>355.3430796907288</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32710,28 +32896,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6332020689979563</v>
+        <v>0.6368388246412382</v>
       </c>
       <c r="J8" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K8" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07339893521598329</v>
+        <v>0.07418723412055717</v>
       </c>
       <c r="M8" t="n">
-        <v>13.52744323832221</v>
+        <v>13.56517718589635</v>
       </c>
       <c r="N8" t="n">
-        <v>295.0226273132622</v>
+        <v>296.3824602308712</v>
       </c>
       <c r="O8" t="n">
-        <v>17.17622273124281</v>
+        <v>17.21576197067301</v>
       </c>
       <c r="P8" t="n">
-        <v>355.3763541521303</v>
+        <v>355.3395437744319</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32788,28 +32974,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8899792132874342</v>
+        <v>0.8956789575931359</v>
       </c>
       <c r="J9" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K9" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1972014734183124</v>
+        <v>0.199585770168707</v>
       </c>
       <c r="M9" t="n">
-        <v>10.46966631491752</v>
+        <v>10.48961891970261</v>
       </c>
       <c r="N9" t="n">
-        <v>190.9405193463296</v>
+        <v>191.4102530795061</v>
       </c>
       <c r="O9" t="n">
-        <v>13.81812285899679</v>
+        <v>13.83510943503903</v>
       </c>
       <c r="P9" t="n">
-        <v>348.6222033952475</v>
+        <v>348.5650069134352</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32866,28 +33052,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.718015745705826</v>
+        <v>0.7274080078728321</v>
       </c>
       <c r="J10" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K10" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1470020774144212</v>
+        <v>0.1509964242810312</v>
       </c>
       <c r="M10" t="n">
-        <v>10.37118740960661</v>
+        <v>10.3755487916679</v>
       </c>
       <c r="N10" t="n">
-        <v>172.9526757262445</v>
+        <v>172.8247219768071</v>
       </c>
       <c r="O10" t="n">
-        <v>13.15114731596618</v>
+        <v>13.14628167874122</v>
       </c>
       <c r="P10" t="n">
-        <v>353.184789369834</v>
+        <v>353.0882017038201</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32944,28 +33130,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6636730282651733</v>
+        <v>0.6776395518966145</v>
       </c>
       <c r="J11" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K11" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1186477337886702</v>
+        <v>0.1232459799501646</v>
       </c>
       <c r="M11" t="n">
-        <v>11.17248742406299</v>
+        <v>11.18494181505748</v>
       </c>
       <c r="N11" t="n">
-        <v>192.9881171439321</v>
+        <v>193.5980279214922</v>
       </c>
       <c r="O11" t="n">
-        <v>13.89201630951865</v>
+        <v>13.91395083797166</v>
       </c>
       <c r="P11" t="n">
-        <v>356.4775790013525</v>
+        <v>356.3361682353274</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33022,28 +33208,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8321790523148275</v>
+        <v>0.8425299185364987</v>
       </c>
       <c r="J12" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K12" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1225476058673598</v>
+        <v>0.1260250560199289</v>
       </c>
       <c r="M12" t="n">
-        <v>13.01262119860973</v>
+        <v>13.00286427476995</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8760279279162</v>
+        <v>288.0497533009656</v>
       </c>
       <c r="O12" t="n">
-        <v>16.99635337147108</v>
+        <v>16.97202855586113</v>
       </c>
       <c r="P12" t="n">
-        <v>350.5981565209466</v>
+        <v>350.4910051176365</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33100,28 +33286,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5429032453729491</v>
+        <v>0.5557709408337299</v>
       </c>
       <c r="J13" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K13" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03714545294460347</v>
+        <v>0.03914652046274691</v>
       </c>
       <c r="M13" t="n">
-        <v>14.79103304065704</v>
+        <v>14.75889486307143</v>
       </c>
       <c r="N13" t="n">
-        <v>447.0035725764042</v>
+        <v>445.5252608964188</v>
       </c>
       <c r="O13" t="n">
-        <v>21.14245900022994</v>
+        <v>21.10746931530208</v>
       </c>
       <c r="P13" t="n">
-        <v>355.1352488379107</v>
+        <v>355.0026938088658</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33178,28 +33364,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4000982757499151</v>
+        <v>0.3970364308862578</v>
       </c>
       <c r="J14" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K14" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02569985018215992</v>
+        <v>0.02520711748772431</v>
       </c>
       <c r="M14" t="n">
-        <v>14.52891159524788</v>
+        <v>14.60573798889527</v>
       </c>
       <c r="N14" t="n">
-        <v>350.9067819206364</v>
+        <v>354.0569052736168</v>
       </c>
       <c r="O14" t="n">
-        <v>18.73250602350461</v>
+        <v>18.81639990204334</v>
       </c>
       <c r="P14" t="n">
-        <v>355.6251621505751</v>
+        <v>355.6575101001459</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33256,28 +33442,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2137614558006423</v>
+        <v>0.2155590024909553</v>
       </c>
       <c r="J15" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K15" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007907109987092764</v>
+        <v>0.00805867559275808</v>
       </c>
       <c r="M15" t="n">
-        <v>13.56790721409008</v>
+        <v>13.59621894514228</v>
       </c>
       <c r="N15" t="n">
-        <v>339.1972783037846</v>
+        <v>339.4560254360459</v>
       </c>
       <c r="O15" t="n">
-        <v>18.41730920367534</v>
+        <v>18.42433242850459</v>
       </c>
       <c r="P15" t="n">
-        <v>359.6285593496848</v>
+        <v>359.6105708661036</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33315,7 +33501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P535"/>
+  <dimension ref="A1:P538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71725,6 +71911,240 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:03+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-40.789484457995435,172.21027929443517</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-40.78888933789174,172.21073381278543</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-40.788245677853375,172.2110269094967</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-40.78766996241863,172.21154600701806</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-40.78701247678298,172.21173926609416</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-40.786366778272175,172.21193384261562</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-40.78569650682382,172.21208595266222</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-40.78506249639679,172.21242507608198</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>-40.78442024917416,172.21272614752115</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>-40.78374647303599,172.21284603012126</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>-40.78311832718711,172.21316903506</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>-40.7824510976749,172.21332287645893</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>-40.781778271707125,172.21346689119704</t>
+        </is>
+      </c>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>-40.78113995498851,172.21380989281369</t>
+        </is>
+      </c>
+      <c r="P536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:08+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-40.78954287770601,172.21047359624453</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-40.7883267947488,172.21129670154235</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-40.78769773011596,172.21163836160994</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-40.787095786001366,172.2120525347597</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-40.786459856994135,172.21234901761318</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-40.785825163295605,172.21268078637664</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-40.78515473467548,172.21285153213262</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>-40.78447720080401,172.2129894577229</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>-40.78380900106797,172.21315390568998</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>-40.78317013611325,172.21345415524158</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>-40.782491905592906,172.21355813975848</t>
+        </is>
+      </c>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>-40.781861508033415,172.21394676070292</t>
+        </is>
+      </c>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>-40.78121911468984,172.2142662621448</t>
+        </is>
+      </c>
+      <c r="P537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-40.7895549725006,172.21051382326462</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-40.78830119174401,172.2112115465193</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-40.787711105858065,172.21168284907245</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-40.78706874386324,172.21195084744403</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-40.78642574727374,172.21219687126754</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-40.78579315081505,172.21253277749636</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-40.78511789530908,172.2126812073567</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>-40.78445029472604,172.2128650597436</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>-40.7837967854165,172.21309375789397</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>-40.78313823355194,172.21327858529304</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>-40.782504506604155,172.21363078694935</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>-40.78191521606283,172.2142564020193</t>
+        </is>
+      </c>
+      <c r="O538" t="inlineStr"/>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P538"/>
+  <dimension ref="A1:P539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26776,6 +26776,56 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="n">
+        <v>363.8633333333333</v>
+      </c>
+      <c r="E539" t="n">
+        <v>374.0866666666667</v>
+      </c>
+      <c r="F539" t="n">
+        <v>374.23</v>
+      </c>
+      <c r="G539" t="n">
+        <v>369.1555555555556</v>
+      </c>
+      <c r="H539" t="n">
+        <v>357.7655555555555</v>
+      </c>
+      <c r="I539" t="n">
+        <v>365.6776923076923</v>
+      </c>
+      <c r="J539" t="n">
+        <v>370.2066666666667</v>
+      </c>
+      <c r="K539" t="n">
+        <v>376.8766666666667</v>
+      </c>
+      <c r="L539" t="n">
+        <v>381.1977777777778</v>
+      </c>
+      <c r="M539" t="n">
+        <v>371.7176923076924</v>
+      </c>
+      <c r="N539" t="n">
+        <v>357.76</v>
+      </c>
+      <c r="O539" t="n">
+        <v>354.45</v>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26787,7 +26837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32255,6 +32305,16 @@
       </c>
       <c r="B546" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>
@@ -33501,7 +33561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P538"/>
+  <dimension ref="A1:P539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72145,6 +72205,80 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-40.788362979044386,172.21141705016942</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-40.787695278078814,172.2116302061894</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-40.7870687005914,172.21195068472812</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-40.7864402678565,172.2122616401723</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-40.78581459476008,172.21263192291204</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-40.785139856722076,172.21278274457453</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>-40.784473453355815,172.21297213166957</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>-40.78380532707455,172.213135815551</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>-40.7831415613536,172.21329689916834</t>
+        </is>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>-40.78249925130662,172.21360048913905</t>
+        </is>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>-40.78186322240357,172.21395664442903</t>
+        </is>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>-40.78120584805,172.21418977687816</t>
+        </is>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -32491,7 +32491,7 @@
         <v>0.05823058258875857</v>
       </c>
       <c r="J2" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K2" t="n">
         <v>449</v>
@@ -32569,7 +32569,7 @@
         <v>0.6827088718582264</v>
       </c>
       <c r="J3" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K3" t="n">
         <v>432</v>
@@ -32644,28 +32644,28 @@
         <v>0.0338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8369368031123786</v>
+        <v>0.8322652562795447</v>
       </c>
       <c r="J4" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K4" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1019736307253846</v>
+        <v>0.1012364301832372</v>
       </c>
       <c r="M4" t="n">
-        <v>15.18488805972107</v>
+        <v>15.17828876485757</v>
       </c>
       <c r="N4" t="n">
-        <v>371.2445082711217</v>
+        <v>370.7419592730076</v>
       </c>
       <c r="O4" t="n">
-        <v>19.26770635729956</v>
+        <v>19.25466071560357</v>
       </c>
       <c r="P4" t="n">
-        <v>354.1560897566968</v>
+        <v>354.2024743967473</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32722,28 +32722,28 @@
         <v>0.0703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.915742259698441</v>
+        <v>0.916202290717658</v>
       </c>
       <c r="J5" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K5" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1548140823526362</v>
+        <v>0.1554447459909071</v>
       </c>
       <c r="M5" t="n">
-        <v>12.91368505578243</v>
+        <v>12.8877021272177</v>
       </c>
       <c r="N5" t="n">
-        <v>277.0508281297608</v>
+        <v>276.4398767136327</v>
       </c>
       <c r="O5" t="n">
-        <v>16.644843890219</v>
+        <v>16.6264811885628</v>
       </c>
       <c r="P5" t="n">
-        <v>348.9425812128037</v>
+        <v>348.9379948827323</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32800,28 +32800,28 @@
         <v>0.0614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8532736818217765</v>
+        <v>0.8520984242041766</v>
       </c>
       <c r="J6" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K6" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1466266323563866</v>
+        <v>0.146750546660765</v>
       </c>
       <c r="M6" t="n">
-        <v>12.33302171247794</v>
+        <v>12.31167555952825</v>
       </c>
       <c r="N6" t="n">
-        <v>252.5706089862934</v>
+        <v>252.0206602124969</v>
       </c>
       <c r="O6" t="n">
-        <v>15.89247019774753</v>
+        <v>15.87515858857784</v>
       </c>
       <c r="P6" t="n">
-        <v>355.0407895169863</v>
+        <v>355.0526915954719</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32878,28 +32878,28 @@
         <v>0.0499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7980987864517178</v>
+        <v>0.7953548993967146</v>
       </c>
       <c r="J7" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K7" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1020529316483808</v>
+        <v>0.1017372485647605</v>
       </c>
       <c r="M7" t="n">
-        <v>14.24942969976374</v>
+        <v>14.23276069362278</v>
       </c>
       <c r="N7" t="n">
-        <v>317.9270414914914</v>
+        <v>317.3104042612816</v>
       </c>
       <c r="O7" t="n">
-        <v>17.83050872778148</v>
+        <v>17.81320870200766</v>
       </c>
       <c r="P7" t="n">
-        <v>355.3430796907288</v>
+        <v>355.3720682113704</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32956,28 +32956,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6368388246412382</v>
+        <v>0.631582648540665</v>
       </c>
       <c r="J8" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K8" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07418723412055717</v>
+        <v>0.07320918474447558</v>
       </c>
       <c r="M8" t="n">
-        <v>13.56517718589635</v>
+        <v>13.56544975180001</v>
       </c>
       <c r="N8" t="n">
-        <v>296.3824602308712</v>
+        <v>296.174524270639</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21576197067301</v>
+        <v>17.20972179527138</v>
       </c>
       <c r="P8" t="n">
-        <v>355.3395437744319</v>
+        <v>355.3933836916605</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33034,28 +33034,28 @@
         <v>0.0742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8956789575931359</v>
+        <v>0.8934096665179202</v>
       </c>
       <c r="J9" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K9" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L9" t="n">
-        <v>0.199585770168707</v>
+        <v>0.199293357136013</v>
       </c>
       <c r="M9" t="n">
-        <v>10.48961891970261</v>
+        <v>10.48009008916823</v>
       </c>
       <c r="N9" t="n">
-        <v>191.4102530795061</v>
+        <v>191.0862709425162</v>
       </c>
       <c r="O9" t="n">
-        <v>13.83510943503903</v>
+        <v>13.82339578188067</v>
       </c>
       <c r="P9" t="n">
-        <v>348.5650069134352</v>
+        <v>348.5879246564622</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33112,28 +33112,28 @@
         <v>0.0667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7274080078728321</v>
+        <v>0.7266850072750314</v>
       </c>
       <c r="J10" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K10" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1509964242810312</v>
+        <v>0.1512280782970117</v>
       </c>
       <c r="M10" t="n">
-        <v>10.3755487916679</v>
+        <v>10.3558905421296</v>
       </c>
       <c r="N10" t="n">
-        <v>172.8247219768071</v>
+        <v>172.4416196227259</v>
       </c>
       <c r="O10" t="n">
-        <v>13.14628167874122</v>
+        <v>13.13170284550811</v>
       </c>
       <c r="P10" t="n">
-        <v>353.0882017038201</v>
+        <v>353.095667985332</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33190,28 +33190,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6776395518966145</v>
+        <v>0.6787238421741726</v>
       </c>
       <c r="J11" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K11" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1232459799501646</v>
+        <v>0.1239972427075609</v>
       </c>
       <c r="M11" t="n">
-        <v>11.18494181505748</v>
+        <v>11.16651685118926</v>
       </c>
       <c r="N11" t="n">
-        <v>193.5980279214922</v>
+        <v>193.1791941588268</v>
       </c>
       <c r="O11" t="n">
-        <v>13.91395083797166</v>
+        <v>13.89889183204283</v>
       </c>
       <c r="P11" t="n">
-        <v>356.3361682353274</v>
+        <v>356.3251424698037</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33268,28 +33268,28 @@
         <v>0.1024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8425299185364987</v>
+        <v>0.8460291811286768</v>
       </c>
       <c r="J12" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K12" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1260250560199289</v>
+        <v>0.1273011502352874</v>
       </c>
       <c r="M12" t="n">
-        <v>13.00286427476995</v>
+        <v>12.99209378892463</v>
       </c>
       <c r="N12" t="n">
-        <v>288.0497533009656</v>
+        <v>287.5296878201191</v>
       </c>
       <c r="O12" t="n">
-        <v>16.97202855586113</v>
+        <v>16.95670038126873</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4910051176365</v>
+        <v>350.4546284641153</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33346,28 +33346,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5557709408337299</v>
+        <v>0.5566484083342965</v>
       </c>
       <c r="J13" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K13" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03914652046274691</v>
+        <v>0.03941068902533218</v>
       </c>
       <c r="M13" t="n">
-        <v>14.75889486307143</v>
+        <v>14.72819199201246</v>
       </c>
       <c r="N13" t="n">
-        <v>445.5252608964188</v>
+        <v>444.4581880814479</v>
       </c>
       <c r="O13" t="n">
-        <v>21.10746931530208</v>
+        <v>21.0821770242413</v>
       </c>
       <c r="P13" t="n">
-        <v>355.0026938088658</v>
+        <v>354.9936106259761</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33424,28 +33424,28 @@
         <v>0.061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3970364308862578</v>
+        <v>0.3938004017866301</v>
       </c>
       <c r="J14" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K14" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02520711748772431</v>
+        <v>0.02488956223362082</v>
       </c>
       <c r="M14" t="n">
-        <v>14.60573798889527</v>
+        <v>14.59193535671166</v>
       </c>
       <c r="N14" t="n">
-        <v>354.0569052736168</v>
+        <v>353.3851328531354</v>
       </c>
       <c r="O14" t="n">
-        <v>18.81639990204334</v>
+        <v>18.79854071073431</v>
       </c>
       <c r="P14" t="n">
-        <v>355.6575101001459</v>
+        <v>355.6912092029807</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33502,28 +33502,28 @@
         <v>0.0528</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2155590024909553</v>
+        <v>0.2114144605287034</v>
       </c>
       <c r="J15" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K15" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00805867559275808</v>
+        <v>0.007777953529551684</v>
       </c>
       <c r="M15" t="n">
-        <v>13.59621894514228</v>
+        <v>13.58948418639445</v>
       </c>
       <c r="N15" t="n">
-        <v>339.4560254360459</v>
+        <v>338.9463061223613</v>
       </c>
       <c r="O15" t="n">
-        <v>18.42433242850459</v>
+        <v>18.41049445621603</v>
       </c>
       <c r="P15" t="n">
-        <v>359.6105708661036</v>
+        <v>359.652663807108</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">

--- a/data/nzd0322/nzd0322.xlsx
+++ b/data/nzd0322/nzd0322.xlsx
@@ -32479,13 +32479,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0384</v>
+        <v>0.0417</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0438</v>
+        <v>0.0475</v>
       </c>
       <c r="I2" t="n">
         <v>0.05823058258875857</v>
@@ -32635,13 +32635,13 @@
         <v>0.8461407683930773</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0294</v>
+        <v>0.0376</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0338</v>
+        <v>0.0475</v>
       </c>
       <c r="I4" t="n">
         <v>0.8322602169053236</v>
@@ -32713,13 +32713,13 @@
         <v>0.7692111525898018</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0542</v>
+        <v>0.0615</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0703</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>0.9162122380458011</v>
@@ -32791,13 +32791,13 @@
         <v>0.6922815367857829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0486</v>
+        <v>0.0553</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0614</v>
+        <v>0.0733</v>
       </c>
       <c r="I6" t="n">
         <v>0.8520947736784888</v>
@@ -32869,13 +32869,13 @@
         <v>0.6154113003021325</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0396</v>
+        <v>0.0442</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0499</v>
+        <v>0.0537</v>
       </c>
       <c r="I7" t="n">
         <v>0.7953470439228382</v>
@@ -32947,10 +32947,10 @@
         <v>0.5384816844977051</v>
       </c>
       <c r="F8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.045</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0407</v>
       </c>
       <c r="H8" t="n">
         <v>0.0554</v>
@@ -33025,13 +33025,13 @@
         <v>0.4615520686940464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.061</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0742</v>
+        <v>0.1304</v>
       </c>
       <c r="I9" t="n">
         <v>0.8934431529297947</v>
@@ -33103,13 +33103,13 @@
         <v>0.3846224528903877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0571</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0667</v>
+        <v>0.0961</v>
       </c>
       <c r="I10" t="n">
         <v>0.7267007976577252</v>
@@ -33181,13 +33181,13 @@
         <v>0.3076928370867289</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0552</v>
+        <v>0.0675</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>0.6787407584630256</v>
@@ -33259,13 +33259,13 @@
         <v>0.2307888474112355</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0784</v>
+        <v>0.0593</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1024</v>
+        <v>0.0721</v>
       </c>
       <c r="I12" t="n">
         <v>0.8460137991525967</v>
@@ -33337,13 +33337,13 @@
         <v>0.1538592316076976</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0584</v>
+        <v>0.0449</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0708</v>
+        <v>0.0614</v>
       </c>
       <c r="I13" t="n">
         <v>0.5566694471560538</v>
@@ -33415,13 +33415,13 @@
         <v>0.07692961580415965</v>
       </c>
       <c r="F14" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0464</v>
+        <v>0.0429</v>
       </c>
       <c r="H14" t="n">
-        <v>0.061</v>
+        <v>0.0535</v>
       </c>
       <c r="I14" t="n">
         <v>0.3937955519506174</v>
@@ -33493,13 +33493,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.044</v>
+        <v>0.0418</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0528</v>
+        <v>0.0551</v>
       </c>
       <c r="I15" t="n">
         <v>0.2114144605287035</v>
